--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_15_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_15_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2340432.272575138</v>
+        <v>2339638.354719735</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1510417.136331583</v>
+        <v>1510417.136331586</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681853</v>
+        <v>590120.9651681863</v>
       </c>
     </row>
     <row r="9">
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>6.424434953660365</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.424434953660366</v>
       </c>
       <c r="S8" t="n">
         <v>7.293863480540836</v>
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>6.424434953660365</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.293863480540836</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1263,16 +1263,16 @@
         <v>7.293863480540836</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="W9" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1297,67 +1297,67 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7.293863480540836</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>6.424434953660366</v>
       </c>
-      <c r="F10" t="n">
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="X10" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
       <c r="Y10" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.4993676014404</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>244.7680532889881</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>260.9009933653329</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.0768210905862</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>210.5499480253154</v>
+        <v>123.9630694916412</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.68390060715191</v>
+        <v>71.6839006071519</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>98.44977757333534</v>
       </c>
       <c r="U11" t="n">
         <v>129.2187191811871</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.3161791325647</v>
       </c>
       <c r="W11" t="n">
         <v>228.3130746106</v>
       </c>
       <c r="X11" t="n">
-        <v>245.6330351135987</v>
+        <v>248.6445567412148</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>43.15508322039024</v>
       </c>
       <c r="C12" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>23.89538118469099</v>
+        <v>23.89538118469098</v>
       </c>
       <c r="E12" t="n">
-        <v>33.81639131721926</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>21.28918969359472</v>
+        <v>135.9198979958866</v>
       </c>
       <c r="G12" t="n">
-        <v>65.79176761439363</v>
+        <v>13.52525463862363</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7494856336505</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>76.83175208282594</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>41.52673247040261</v>
+        <v>163.7437748603572</v>
       </c>
       <c r="T12" t="n">
-        <v>75.0332122851101</v>
+        <v>75.03321228511008</v>
       </c>
       <c r="U12" t="n">
         <v>102.4216535472161</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>109.6916886497005</v>
       </c>
       <c r="W12" t="n">
-        <v>127.7723043600455</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.86664910072923</v>
+        <v>57.86664910072922</v>
       </c>
       <c r="C13" t="n">
-        <v>45.11951054124776</v>
+        <v>45.11951054124775</v>
       </c>
       <c r="D13" t="n">
-        <v>26.78852412456479</v>
+        <v>26.78852412456477</v>
       </c>
       <c r="E13" t="n">
-        <v>24.7575817832446</v>
+        <v>24.75758178324459</v>
       </c>
       <c r="F13" t="n">
-        <v>23.94197901984992</v>
+        <v>23.94197901984991</v>
       </c>
       <c r="G13" t="n">
-        <v>45.43703836949118</v>
+        <v>45.43703836949116</v>
       </c>
       <c r="H13" t="n">
-        <v>37.32314788343731</v>
+        <v>37.3231478834373</v>
       </c>
       <c r="I13" t="n">
-        <v>24.45913142062238</v>
+        <v>24.45913142062237</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.58480153350223</v>
+        <v>40.58480153350222</v>
       </c>
       <c r="S13" t="n">
-        <v>96.03609945183473</v>
+        <v>96.03609945183472</v>
       </c>
       <c r="T13" t="n">
         <v>105.1091614178141</v>
@@ -1588,13 +1588,13 @@
         <v>130.7193086769846</v>
       </c>
       <c r="W13" t="n">
-        <v>163.875534497461</v>
+        <v>163.8755344974609</v>
       </c>
       <c r="X13" t="n">
         <v>103.9233175423547</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.53163147781365</v>
+        <v>96.53163147781363</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>244.7680532889881</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>20.95996226024955</v>
+        <v>135.7237059948501</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>260.9009933653329</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>292.1126979463423</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>210.5499480253155</v>
+        <v>210.5499480253154</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.76623656206198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.68390060715194</v>
+        <v>71.68390060715188</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>98.44977757333533</v>
       </c>
       <c r="U14" t="n">
         <v>129.2187191811871</v>
       </c>
       <c r="V14" t="n">
-        <v>206.3161791325648</v>
+        <v>206.3161791325647</v>
       </c>
       <c r="W14" t="n">
         <v>228.3130746106</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.15508322039028</v>
+        <v>80.53207020907278</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>48.80854153744637</v>
       </c>
       <c r="D15" t="n">
-        <v>23.89538118469102</v>
+        <v>23.89538118469095</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>33.81639131721921</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>21.28918969359468</v>
       </c>
       <c r="G15" t="n">
-        <v>13.52525463862367</v>
+        <v>13.5252546386236</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.25372131360933</v>
+        <v>77.25372131360936</v>
       </c>
       <c r="S15" t="n">
         <v>163.7437748603572</v>
       </c>
       <c r="T15" t="n">
-        <v>75.03321228511012</v>
+        <v>197.2502546750647</v>
       </c>
       <c r="U15" t="n">
         <v>224.6386959371707</v>
       </c>
       <c r="V15" t="n">
-        <v>147.0686756383826</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>127.7723043600455</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>81.45410902863148</v>
+        <v>81.45410902863141</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.86664910072926</v>
+        <v>57.86664910072919</v>
       </c>
       <c r="C16" t="n">
-        <v>45.11951054124779</v>
+        <v>45.11951054124772</v>
       </c>
       <c r="D16" t="n">
-        <v>26.78852412456482</v>
+        <v>26.78852412456474</v>
       </c>
       <c r="E16" t="n">
-        <v>24.75758178324463</v>
+        <v>24.75758178324456</v>
       </c>
       <c r="F16" t="n">
-        <v>23.94197901984995</v>
+        <v>23.94197901984988</v>
       </c>
       <c r="G16" t="n">
-        <v>45.43703836949121</v>
+        <v>45.43703836949113</v>
       </c>
       <c r="H16" t="n">
-        <v>37.32314788343734</v>
+        <v>37.32314788343729</v>
       </c>
       <c r="I16" t="n">
-        <v>24.45913142062241</v>
+        <v>24.45913142062235</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.58480153350226</v>
+        <v>40.58480153350222</v>
       </c>
       <c r="S16" t="n">
-        <v>96.03609945183476</v>
+        <v>96.03609945183469</v>
       </c>
       <c r="T16" t="n">
         <v>105.1091614178141</v>
@@ -1825,13 +1825,13 @@
         <v>130.7193086769846</v>
       </c>
       <c r="W16" t="n">
-        <v>163.875534497461</v>
+        <v>163.8755344974609</v>
       </c>
       <c r="X16" t="n">
-        <v>103.9233175423547</v>
+        <v>103.9233175423546</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.53163147781368</v>
+        <v>96.5316314778136</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>160.3584476917836</v>
+        <v>160.3584476917835</v>
       </c>
       <c r="C17" t="n">
-        <v>143.6271333793312</v>
+        <v>143.6271333793311</v>
       </c>
       <c r="D17" t="n">
         <v>133.2467704549869</v>
       </c>
       <c r="E17" t="n">
-        <v>159.760073455676</v>
+        <v>159.7600734556759</v>
       </c>
       <c r="F17" t="n">
-        <v>183.9359011809294</v>
+        <v>183.9359011809293</v>
       </c>
       <c r="G17" t="n">
-        <v>190.9717780366854</v>
+        <v>190.9717780366853</v>
       </c>
       <c r="H17" t="n">
-        <v>109.4090281156586</v>
+        <v>109.4090281156585</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>28.07779927153025</v>
+        <v>28.07779927153016</v>
       </c>
       <c r="V17" t="n">
-        <v>105.1752592229079</v>
+        <v>105.1752592229078</v>
       </c>
       <c r="W17" t="n">
         <v>127.1721547009431</v>
@@ -1910,7 +1910,7 @@
         <v>147.5036368315579</v>
       </c>
       <c r="Y17" t="n">
-        <v>163.3291094516244</v>
+        <v>163.3291094516243</v>
       </c>
     </row>
     <row r="18">
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
@@ -1938,7 +1938,7 @@
         <v>135.7422970285782</v>
       </c>
       <c r="H18" t="n">
-        <v>107.7494856336505</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>77.25372131360933</v>
       </c>
       <c r="S18" t="n">
         <v>163.7437748603572</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.2502546750647</v>
       </c>
       <c r="U18" t="n">
-        <v>1.280733637559241</v>
+        <v>224.6386959371707</v>
       </c>
       <c r="V18" t="n">
-        <v>8.550768740043679</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>45.31745196324732</v>
+        <v>151.4643672210549</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>15.78478857820364</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>60.04010205793387</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.96824150815724</v>
+        <v>3.968241508157154</v>
       </c>
       <c r="U19" t="n">
-        <v>62.68146219123482</v>
+        <v>62.68146219123474</v>
       </c>
       <c r="V19" t="n">
-        <v>29.57838876732771</v>
+        <v>29.57838876732762</v>
       </c>
       <c r="W19" t="n">
-        <v>62.73461458780409</v>
+        <v>198.562992598758</v>
       </c>
       <c r="X19" t="n">
-        <v>2.782397632697808</v>
+        <v>2.782397632697723</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>160.3584476917836</v>
+        <v>160.3584476917835</v>
       </c>
       <c r="C20" t="n">
-        <v>143.6271333793312</v>
+        <v>143.6271333793311</v>
       </c>
       <c r="D20" t="n">
         <v>133.2467704549869</v>
       </c>
       <c r="E20" t="n">
-        <v>159.760073455676</v>
+        <v>159.7600734556759</v>
       </c>
       <c r="F20" t="n">
-        <v>183.9359011809294</v>
+        <v>183.9359011809307</v>
       </c>
       <c r="G20" t="n">
-        <v>190.9717780366854</v>
+        <v>190.9717780366853</v>
       </c>
       <c r="H20" t="n">
-        <v>109.4090281156586</v>
+        <v>109.4090281156585</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>28.07779927153025</v>
+        <v>28.07779927153016</v>
       </c>
       <c r="V20" t="n">
-        <v>105.1752592229079</v>
+        <v>105.1752592229078</v>
       </c>
       <c r="W20" t="n">
         <v>127.1721547009431</v>
@@ -2147,7 +2147,7 @@
         <v>147.5036368315579</v>
       </c>
       <c r="Y20" t="n">
-        <v>163.3291094516244</v>
+        <v>163.3291094516243</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91.74648145458603</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>77.25372131360933</v>
       </c>
       <c r="S21" t="n">
         <v>163.7437748603572</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2502546750647</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>224.6386959371707</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>8.550768740043594</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>144.2309847194286</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>60.04010205793387</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3.96824150815724</v>
+        <v>3.968241508157154</v>
       </c>
       <c r="U22" t="n">
-        <v>62.68146219123482</v>
+        <v>62.68146219123474</v>
       </c>
       <c r="V22" t="n">
-        <v>29.57838876732771</v>
+        <v>165.4067667782816</v>
       </c>
       <c r="W22" t="n">
-        <v>62.73461458780409</v>
+        <v>62.734614587804</v>
       </c>
       <c r="X22" t="n">
-        <v>198.6508777015852</v>
+        <v>2.782397632697723</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>160.3584476917836</v>
+        <v>160.3584476917835</v>
       </c>
       <c r="C23" t="n">
-        <v>143.6271333793312</v>
+        <v>143.6271333793311</v>
       </c>
       <c r="D23" t="n">
         <v>133.2467704549869</v>
       </c>
       <c r="E23" t="n">
-        <v>159.760073455676</v>
+        <v>159.7600734556759</v>
       </c>
       <c r="F23" t="n">
-        <v>183.9359011809294</v>
+        <v>183.9359011809293</v>
       </c>
       <c r="G23" t="n">
-        <v>190.9717780366854</v>
+        <v>190.9717780366853</v>
       </c>
       <c r="H23" t="n">
-        <v>109.4090281156586</v>
+        <v>109.4090281156585</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>28.07779927153025</v>
+        <v>28.07779927153016</v>
       </c>
       <c r="V23" t="n">
-        <v>105.1752592229079</v>
+        <v>105.1752592229078</v>
       </c>
       <c r="W23" t="n">
         <v>127.1721547009431</v>
@@ -2384,7 +2384,7 @@
         <v>147.5036368315579</v>
       </c>
       <c r="Y23" t="n">
-        <v>163.3291094516244</v>
+        <v>163.3291094516243</v>
       </c>
     </row>
     <row r="24">
@@ -2394,22 +2394,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.7422970285782</v>
       </c>
       <c r="H24" t="n">
         <v>107.7494856336505</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.25372131360933</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.7437748603572</v>
       </c>
       <c r="T24" t="n">
         <v>197.2502546750647</v>
       </c>
       <c r="U24" t="n">
-        <v>188.4633117228715</v>
+        <v>224.6386959371707</v>
       </c>
       <c r="V24" t="n">
-        <v>8.550768740043679</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>26.63138445038851</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>137.8651718619085</v>
       </c>
       <c r="Y24" t="n">
         <v>203.671151418586</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3.96824150815724</v>
+        <v>199.836721577045</v>
       </c>
       <c r="U25" t="n">
-        <v>62.68146219123482</v>
+        <v>62.68146219123474</v>
       </c>
       <c r="V25" t="n">
-        <v>225.4468688362151</v>
+        <v>29.57838876732762</v>
       </c>
       <c r="W25" t="n">
-        <v>62.73461458780409</v>
+        <v>62.734614587804</v>
       </c>
       <c r="X25" t="n">
-        <v>2.782397632697808</v>
+        <v>2.782397632697723</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.5492047621312</v>
+        <v>241.549204762131</v>
       </c>
       <c r="C26" t="n">
-        <v>224.8178904496788</v>
+        <v>224.8178904496786</v>
       </c>
       <c r="D26" t="n">
-        <v>214.4375275253345</v>
+        <v>214.4375275253344</v>
       </c>
       <c r="E26" t="n">
-        <v>240.9508305260236</v>
+        <v>240.9508305260234</v>
       </c>
       <c r="F26" t="n">
-        <v>265.126658251277</v>
+        <v>265.1266582512768</v>
       </c>
       <c r="G26" t="n">
-        <v>272.162535107033</v>
+        <v>272.1625351070342</v>
       </c>
       <c r="H26" t="n">
-        <v>190.5997851860062</v>
+        <v>190.599785186006</v>
       </c>
       <c r="I26" t="n">
-        <v>42.8160737227527</v>
+        <v>42.81607372275253</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.73373776784263</v>
+        <v>51.73373776784246</v>
       </c>
       <c r="T26" t="n">
-        <v>78.49961473402608</v>
+        <v>78.49961473402591</v>
       </c>
       <c r="U26" t="n">
-        <v>109.2685563418778</v>
+        <v>109.2685563418777</v>
       </c>
       <c r="V26" t="n">
-        <v>186.3660162932555</v>
+        <v>186.3660162932553</v>
       </c>
       <c r="W26" t="n">
-        <v>208.3629117712907</v>
+        <v>208.3629117712906</v>
       </c>
       <c r="X26" t="n">
-        <v>228.6943939019055</v>
+        <v>228.6943939019054</v>
       </c>
       <c r="Y26" t="n">
-        <v>244.5198665219719</v>
+        <v>244.5198665219718</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>37.94522319038442</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -2646,7 +2646,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7422970285782</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>77.25372131360933</v>
       </c>
       <c r="S27" t="n">
-        <v>21.57656963109332</v>
+        <v>163.7437748603572</v>
       </c>
       <c r="T27" t="n">
         <v>197.2502546750647</v>
@@ -2694,13 +2694,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>123.3338942136689</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>62.29442437921441</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>61.50394618932199</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.91648626141995</v>
+        <v>37.91648626141978</v>
       </c>
       <c r="C28" t="n">
-        <v>25.16934770193848</v>
+        <v>25.16934770193831</v>
       </c>
       <c r="D28" t="n">
-        <v>6.838361285255502</v>
+        <v>6.838361285255331</v>
       </c>
       <c r="E28" t="n">
-        <v>4.807418943935318</v>
+        <v>4.807418943935147</v>
       </c>
       <c r="F28" t="n">
-        <v>3.991816180540638</v>
+        <v>3.991816180540468</v>
       </c>
       <c r="G28" t="n">
-        <v>25.48687553018189</v>
+        <v>25.48687553018172</v>
       </c>
       <c r="H28" t="n">
-        <v>17.37298504412804</v>
+        <v>17.37298504412787</v>
       </c>
       <c r="I28" t="n">
-        <v>4.50896858131309</v>
+        <v>4.50896858131292</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.63463869419295</v>
+        <v>20.63463869419278</v>
       </c>
       <c r="S28" t="n">
-        <v>76.08593661252544</v>
+        <v>76.08593661252527</v>
       </c>
       <c r="T28" t="n">
-        <v>85.15899857850482</v>
+        <v>85.15899857850465</v>
       </c>
       <c r="U28" t="n">
-        <v>143.8722192615824</v>
+        <v>143.8722192615822</v>
       </c>
       <c r="V28" t="n">
-        <v>110.7691458376753</v>
+        <v>110.7691458376751</v>
       </c>
       <c r="W28" t="n">
-        <v>143.9253716581517</v>
+        <v>143.9253716581515</v>
       </c>
       <c r="X28" t="n">
-        <v>83.9731547030454</v>
+        <v>83.97315470304522</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.58146863850436</v>
+        <v>76.58146863850419</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>272.1625351070329</v>
       </c>
       <c r="H29" t="n">
-        <v>190.5997851860061</v>
+        <v>190.599785186006</v>
       </c>
       <c r="I29" t="n">
-        <v>42.81607372275261</v>
+        <v>42.81607372275258</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.73373776784254</v>
+        <v>51.73373776784251</v>
       </c>
       <c r="T29" t="n">
-        <v>78.499614734026</v>
+        <v>78.49961473402597</v>
       </c>
       <c r="U29" t="n">
         <v>109.2685563418777</v>
@@ -2858,7 +2858,7 @@
         <v>228.6943939019054</v>
       </c>
       <c r="Y29" t="n">
-        <v>244.5198665219719</v>
+        <v>244.5198665219718</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32.71373410411132</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
@@ -2877,10 +2877,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>13.86622847790986</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>10.42587134653272</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.83175208282594</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.25372131360933</v>
       </c>
       <c r="S30" t="n">
-        <v>21.57656963109324</v>
+        <v>163.7437748603572</v>
       </c>
       <c r="T30" t="n">
         <v>197.2502546750647</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.91648626141986</v>
+        <v>37.91648626141983</v>
       </c>
       <c r="C31" t="n">
-        <v>25.16934770193839</v>
+        <v>25.16934770193836</v>
       </c>
       <c r="D31" t="n">
-        <v>6.838361285255417</v>
+        <v>6.838361285255388</v>
       </c>
       <c r="E31" t="n">
-        <v>4.807418943935232</v>
+        <v>4.807418943935204</v>
       </c>
       <c r="F31" t="n">
-        <v>3.991816180540553</v>
+        <v>3.991816180540525</v>
       </c>
       <c r="G31" t="n">
-        <v>25.48687553018181</v>
+        <v>25.48687553018178</v>
       </c>
       <c r="H31" t="n">
-        <v>17.37298504412795</v>
+        <v>17.37298504412792</v>
       </c>
       <c r="I31" t="n">
-        <v>4.508968581313005</v>
+        <v>4.508968581312977</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.63463869419287</v>
+        <v>20.63463869419284</v>
       </c>
       <c r="S31" t="n">
-        <v>76.08593661252536</v>
+        <v>76.08593661252533</v>
       </c>
       <c r="T31" t="n">
-        <v>85.15899857850474</v>
+        <v>85.15899857850471</v>
       </c>
       <c r="U31" t="n">
         <v>143.8722192615823</v>
@@ -3013,10 +3013,10 @@
         <v>143.9253716581516</v>
       </c>
       <c r="X31" t="n">
-        <v>83.97315470304531</v>
+        <v>83.97315470304528</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.58146863850428</v>
+        <v>76.58146863850425</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3029,25 @@
         <v>239.6621364024456</v>
       </c>
       <c r="C32" t="n">
-        <v>222.9308220899932</v>
+        <v>222.9308220899931</v>
       </c>
       <c r="D32" t="n">
-        <v>212.550459165649</v>
+        <v>212.5504591656489</v>
       </c>
       <c r="E32" t="n">
-        <v>239.0637621663381</v>
+        <v>239.063762166338</v>
       </c>
       <c r="F32" t="n">
-        <v>263.2395898915914</v>
+        <v>263.2395898915913</v>
       </c>
       <c r="G32" t="n">
-        <v>270.2754667473474</v>
+        <v>270.2754667473473</v>
       </c>
       <c r="H32" t="n">
-        <v>188.7127168263206</v>
+        <v>188.7127168263205</v>
       </c>
       <c r="I32" t="n">
-        <v>40.92900536306715</v>
+        <v>40.92900536306706</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>49.84666940815708</v>
+        <v>49.846669408157</v>
       </c>
       <c r="T32" t="n">
-        <v>76.61254637434052</v>
+        <v>76.61254637434044</v>
       </c>
       <c r="U32" t="n">
-        <v>107.3814879821923</v>
+        <v>107.3814879821922</v>
       </c>
       <c r="V32" t="n">
         <v>184.4789479335699</v>
       </c>
       <c r="W32" t="n">
-        <v>206.4758434116052</v>
+        <v>206.4758434116051</v>
       </c>
       <c r="X32" t="n">
-        <v>226.80732554222</v>
+        <v>226.8073255422199</v>
       </c>
       <c r="Y32" t="n">
-        <v>242.6327981622864</v>
+        <v>242.6327981622863</v>
       </c>
     </row>
     <row r="33">
@@ -3108,22 +3108,22 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>26.97131033845159</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>11.97916011822434</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>97.87863758019853</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.7422970285782</v>
       </c>
       <c r="H33" t="n">
-        <v>90.11470252522729</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>19.68950127140778</v>
+        <v>19.68950127140769</v>
       </c>
       <c r="T33" t="n">
         <v>197.2502546750647</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.0294179017344</v>
+        <v>36.02941790173432</v>
       </c>
       <c r="C34" t="n">
-        <v>23.28227934225293</v>
+        <v>23.28227934225285</v>
       </c>
       <c r="D34" t="n">
-        <v>4.951292925569959</v>
+        <v>4.951292925569874</v>
       </c>
       <c r="E34" t="n">
-        <v>2.920350584249775</v>
+        <v>2.92035058424969</v>
       </c>
       <c r="F34" t="n">
-        <v>2.104747820855096</v>
+        <v>2.10474782085501</v>
       </c>
       <c r="G34" t="n">
-        <v>23.59980717049635</v>
+        <v>23.59980717049626</v>
       </c>
       <c r="H34" t="n">
-        <v>15.48591668444249</v>
+        <v>15.48591668444241</v>
       </c>
       <c r="I34" t="n">
-        <v>2.621900221627548</v>
+        <v>2.621900221627462</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.74757033450741</v>
+        <v>18.74757033450732</v>
       </c>
       <c r="S34" t="n">
-        <v>74.1988682528399</v>
+        <v>74.19886825283982</v>
       </c>
       <c r="T34" t="n">
-        <v>83.27193021881928</v>
+        <v>83.27193021881919</v>
       </c>
       <c r="U34" t="n">
-        <v>141.9851509018969</v>
+        <v>141.9851509018968</v>
       </c>
       <c r="V34" t="n">
-        <v>108.8820774779898</v>
+        <v>108.8820774779897</v>
       </c>
       <c r="W34" t="n">
-        <v>142.0383032984661</v>
+        <v>142.038303298466</v>
       </c>
       <c r="X34" t="n">
-        <v>82.08608634335985</v>
+        <v>82.08608634335977</v>
       </c>
       <c r="Y34" t="n">
-        <v>74.69440027881882</v>
+        <v>74.69440027881873</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>163.0495900281065</v>
+        <v>163.0495900281051</v>
       </c>
       <c r="C35" t="n">
-        <v>146.3182757156541</v>
+        <v>146.3182757156527</v>
       </c>
       <c r="D35" t="n">
-        <v>135.9379127913099</v>
+        <v>135.9379127913085</v>
       </c>
       <c r="E35" t="n">
-        <v>162.4512157919989</v>
+        <v>162.4512157919975</v>
       </c>
       <c r="F35" t="n">
-        <v>186.6270435172523</v>
+        <v>186.6270435172509</v>
       </c>
       <c r="G35" t="n">
-        <v>193.6629203730083</v>
+        <v>193.6629203730069</v>
       </c>
       <c r="H35" t="n">
-        <v>112.1001704519815</v>
+        <v>112.1001704519801</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.76894160785316</v>
+        <v>30.76894160785176</v>
       </c>
       <c r="V35" t="n">
-        <v>107.8664015592308</v>
+        <v>107.8664015592294</v>
       </c>
       <c r="W35" t="n">
-        <v>129.8632970372661</v>
+        <v>129.8632970372647</v>
       </c>
       <c r="X35" t="n">
-        <v>150.1947791678809</v>
+        <v>150.1947791678795</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.0202517879473</v>
+        <v>166.0202517879459</v>
       </c>
     </row>
     <row r="36">
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>62.82208329692622</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>76.83175208282594</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.25372131360933</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.2502546750647</v>
+        <v>115.2004638070432</v>
       </c>
       <c r="U36" t="n">
         <v>224.6386959371707</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>6.659383844480152</v>
+        <v>6.659383844478759</v>
       </c>
       <c r="U37" t="n">
-        <v>65.37260452755774</v>
+        <v>65.37260452755635</v>
       </c>
       <c r="V37" t="n">
-        <v>32.26953110365062</v>
+        <v>32.26953110364923</v>
       </c>
       <c r="W37" t="n">
-        <v>65.425756924127</v>
+        <v>65.42575692412561</v>
       </c>
       <c r="X37" t="n">
-        <v>5.47353996902072</v>
+        <v>187.8863083562992</v>
       </c>
       <c r="Y37" t="n">
-        <v>182.4127683872728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>163.0495900281065</v>
+        <v>163.0495900281051</v>
       </c>
       <c r="C38" t="n">
-        <v>146.3182757156541</v>
+        <v>146.3182757156527</v>
       </c>
       <c r="D38" t="n">
-        <v>135.9379127913099</v>
+        <v>135.9379127913085</v>
       </c>
       <c r="E38" t="n">
-        <v>162.4512157919989</v>
+        <v>162.4512157919975</v>
       </c>
       <c r="F38" t="n">
-        <v>186.6270435172523</v>
+        <v>186.6270435172509</v>
       </c>
       <c r="G38" t="n">
-        <v>193.6629203730083</v>
+        <v>193.6629203730069</v>
       </c>
       <c r="H38" t="n">
-        <v>112.1001704519815</v>
+        <v>112.1001704519801</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>30.76894160785316</v>
+        <v>30.76894160785177</v>
       </c>
       <c r="V38" t="n">
-        <v>107.8664015592308</v>
+        <v>107.8664015592294</v>
       </c>
       <c r="W38" t="n">
-        <v>129.8632970372661</v>
+        <v>129.8632970372647</v>
       </c>
       <c r="X38" t="n">
-        <v>150.1947791678809</v>
+        <v>150.1947791678795</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.0202517879473</v>
+        <v>166.0202517879459</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -3591,10 +3591,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7422970285782</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.25372131360933</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.2502546750647</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6386959371707</v>
+        <v>102.4492181678043</v>
       </c>
       <c r="V39" t="n">
-        <v>55.33346411096334</v>
+        <v>11.2419110763652</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>35.43814421407369</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.659383844480152</v>
+        <v>189.0721522317586</v>
       </c>
       <c r="U40" t="n">
-        <v>65.37260452755774</v>
+        <v>65.37260452755635</v>
       </c>
       <c r="V40" t="n">
-        <v>32.26953110365062</v>
+        <v>32.26953110364923</v>
       </c>
       <c r="W40" t="n">
-        <v>65.425756924127</v>
+        <v>65.42575692412561</v>
       </c>
       <c r="X40" t="n">
-        <v>5.47353996902072</v>
+        <v>5.473539969019328</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>189.8154669942886</v>
       </c>
       <c r="C41" t="n">
-        <v>173.0841526818362</v>
+        <v>162.888193301393</v>
       </c>
       <c r="D41" t="n">
         <v>162.7037897574919</v>
@@ -3755,7 +3755,7 @@
         <v>220.4287973391904</v>
       </c>
       <c r="H41" t="n">
-        <v>138.8660474181636</v>
+        <v>138.8660474181635</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.76587696618348</v>
+        <v>26.76587696618345</v>
       </c>
       <c r="U41" t="n">
-        <v>57.53481857403523</v>
+        <v>57.53481857403521</v>
       </c>
       <c r="V41" t="n">
         <v>134.6322785254129</v>
       </c>
       <c r="W41" t="n">
-        <v>146.4332146230097</v>
+        <v>156.6291740034481</v>
       </c>
       <c r="X41" t="n">
         <v>176.9606561340629</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.7861287541294</v>
+        <v>192.7861287541293</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>130.3165107294279</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>135.7422970285782</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>77.25372131360933</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.7437748603572</v>
       </c>
       <c r="T42" t="n">
         <v>197.2502546750647</v>
@@ -3876,7 +3876,7 @@
         <v>224.6386959371707</v>
       </c>
       <c r="V42" t="n">
-        <v>38.00778804254867</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
@@ -3885,7 +3885,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>67.06754007837658</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.35219884468284</v>
+        <v>24.35219884468281</v>
       </c>
       <c r="T43" t="n">
-        <v>33.42526081066223</v>
+        <v>33.4252608106622</v>
       </c>
       <c r="U43" t="n">
-        <v>92.13848149373982</v>
+        <v>92.13848149373979</v>
       </c>
       <c r="V43" t="n">
-        <v>59.0354080698327</v>
+        <v>59.03540806983267</v>
       </c>
       <c r="W43" t="n">
-        <v>92.19163389030908</v>
+        <v>92.19163389030905</v>
       </c>
       <c r="X43" t="n">
-        <v>32.2394169352028</v>
+        <v>32.23941693520277</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.84773087066176</v>
+        <v>24.84773087066174</v>
       </c>
     </row>
     <row r="44">
@@ -3977,10 +3977,10 @@
         <v>189.8154669942886</v>
       </c>
       <c r="C44" t="n">
-        <v>173.0841526818362</v>
+        <v>173.0841526818361</v>
       </c>
       <c r="D44" t="n">
-        <v>162.703789757492</v>
+        <v>162.7037897574919</v>
       </c>
       <c r="E44" t="n">
         <v>189.217092758181</v>
@@ -3992,7 +3992,7 @@
         <v>220.4287973391904</v>
       </c>
       <c r="H44" t="n">
-        <v>138.8660474181636</v>
+        <v>128.6700880377212</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>26.76587696618351</v>
+        <v>26.76587696618345</v>
       </c>
       <c r="U44" t="n">
-        <v>47.33885919359603</v>
+        <v>57.53481857403521</v>
       </c>
       <c r="V44" t="n">
         <v>134.6322785254129</v>
       </c>
       <c r="W44" t="n">
-        <v>156.6291740034482</v>
+        <v>156.6291740034481</v>
       </c>
       <c r="X44" t="n">
-        <v>176.960656134063</v>
+        <v>176.9606561340629</v>
       </c>
       <c r="Y44" t="n">
-        <v>192.7861287541294</v>
+        <v>192.7861287541293</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
@@ -4068,7 +4068,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7422970285782</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.25372131360933</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.7437748603572</v>
       </c>
       <c r="T45" t="n">
         <v>197.2502546750647</v>
@@ -4113,16 +4113,16 @@
         <v>224.6386959371707</v>
       </c>
       <c r="V45" t="n">
-        <v>190.190192298772</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>86.01670910896314</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>9.770208421479538</v>
       </c>
     </row>
     <row r="46">
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.35219884468287</v>
+        <v>24.35219884468281</v>
       </c>
       <c r="T46" t="n">
-        <v>33.42526081066226</v>
+        <v>33.4252608106622</v>
       </c>
       <c r="U46" t="n">
-        <v>92.13848149373985</v>
+        <v>92.13848149373979</v>
       </c>
       <c r="V46" t="n">
-        <v>59.03540806983273</v>
+        <v>59.03540806983267</v>
       </c>
       <c r="W46" t="n">
-        <v>92.19163389030911</v>
+        <v>92.19163389030905</v>
       </c>
       <c r="X46" t="n">
-        <v>32.23941693520283</v>
+        <v>32.23941693520277</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.84773087066179</v>
+        <v>24.84773087066174</v>
       </c>
     </row>
   </sheetData>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="C8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="D8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="E8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="F8" t="n">
-        <v>14.440376183697</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="G8" t="n">
-        <v>7.072837314463837</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="H8" t="n">
-        <v>7.072837314463837</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="I8" t="n">
         <v>0.5835090784432668</v>
@@ -4805,49 +4805,49 @@
         <v>0.5835090784432668</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.804433924178694</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5835090784432668</v>
+        <v>15.02535876991412</v>
       </c>
       <c r="M8" t="n">
-        <v>3.493732152831573</v>
+        <v>15.02535876991412</v>
       </c>
       <c r="N8" t="n">
-        <v>10.714656998567</v>
+        <v>15.02535876991412</v>
       </c>
       <c r="O8" t="n">
-        <v>17.93558184430243</v>
+        <v>22.24628361564955</v>
       </c>
       <c r="P8" t="n">
-        <v>25.15650669003785</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="Q8" t="n">
         <v>29.17545392216334</v>
       </c>
       <c r="R8" t="n">
-        <v>29.17545392216334</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="S8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="T8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="U8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="V8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="W8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="X8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.3185868169096</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.951047947676434</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="E9" t="n">
         <v>0.5835090784432668</v>
@@ -4887,7 +4887,7 @@
         <v>7.804433924178694</v>
       </c>
       <c r="L9" t="n">
-        <v>15.02535876991412</v>
+        <v>14.73360423069249</v>
       </c>
       <c r="M9" t="n">
         <v>21.95452907642792</v>
@@ -4899,7 +4899,7 @@
         <v>21.95452907642792</v>
       </c>
       <c r="P9" t="n">
-        <v>21.95452907642792</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="Q9" t="n">
         <v>29.17545392216334</v>
@@ -4911,22 +4911,22 @@
         <v>21.80791505293017</v>
       </c>
       <c r="T9" t="n">
-        <v>21.80791505293017</v>
+        <v>14.440376183697</v>
       </c>
       <c r="U9" t="n">
-        <v>21.80791505293017</v>
+        <v>14.440376183697</v>
       </c>
       <c r="V9" t="n">
-        <v>21.80791505293017</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="W9" t="n">
-        <v>14.440376183697</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="X9" t="n">
-        <v>14.440376183697</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.440376183697</v>
+        <v>7.072837314463837</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.80791505293017</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="C10" t="n">
-        <v>21.80791505293017</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="D10" t="n">
-        <v>21.80791505293017</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="E10" t="n">
-        <v>15.3185868169096</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="F10" t="n">
-        <v>7.951047947676434</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="G10" t="n">
-        <v>7.951047947676434</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="H10" t="n">
         <v>0.5835090784432668</v>
@@ -4969,7 +4969,7 @@
         <v>7.804433924178694</v>
       </c>
       <c r="M10" t="n">
-        <v>15.02535876991412</v>
+        <v>14.73360423069249</v>
       </c>
       <c r="N10" t="n">
         <v>21.95452907642792</v>
@@ -4984,28 +4984,28 @@
         <v>29.17545392216334</v>
       </c>
       <c r="R10" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="S10" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="T10" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="U10" t="n">
-        <v>29.17545392216334</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="V10" t="n">
-        <v>29.17545392216334</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="W10" t="n">
-        <v>29.17545392216334</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="X10" t="n">
-        <v>29.17545392216334</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.80791505293017</v>
+        <v>0.5835090784432668</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>757.5200542382147</v>
+        <v>710.7744878421785</v>
       </c>
       <c r="C11" t="n">
-        <v>510.2795963705499</v>
+        <v>710.7744878421785</v>
       </c>
       <c r="D11" t="n">
-        <v>510.2795963705499</v>
+        <v>710.7744878421785</v>
       </c>
       <c r="E11" t="n">
-        <v>246.7432394358704</v>
+        <v>447.2381309074987</v>
       </c>
       <c r="F11" t="n">
-        <v>246.7432394358704</v>
+        <v>159.2817459675125</v>
       </c>
       <c r="G11" t="n">
-        <v>246.7432394358704</v>
+        <v>159.2817459675125</v>
       </c>
       <c r="H11" t="n">
         <v>34.06652425878406</v>
@@ -5069,22 +5069,22 @@
         <v>1630.918232527938</v>
       </c>
       <c r="T11" t="n">
-        <v>1630.918232527938</v>
+        <v>1531.474012756893</v>
       </c>
       <c r="U11" t="n">
-        <v>1500.394273759062</v>
+        <v>1400.950053988016</v>
       </c>
       <c r="V11" t="n">
-        <v>1500.394273759062</v>
+        <v>1192.549873046032</v>
       </c>
       <c r="W11" t="n">
-        <v>1269.775006475628</v>
+        <v>961.9306057625975</v>
       </c>
       <c r="X11" t="n">
-        <v>1021.660829593205</v>
+        <v>710.7744878421785</v>
       </c>
       <c r="Y11" t="n">
-        <v>1021.660829593205</v>
+        <v>710.7744878421785</v>
       </c>
     </row>
     <row r="12">
@@ -5103,16 +5103,16 @@
         <v>342.6307528867478</v>
       </c>
       <c r="E12" t="n">
-        <v>308.4727818592536</v>
+        <v>185.0212238896025</v>
       </c>
       <c r="F12" t="n">
-        <v>286.9685498455215</v>
+        <v>47.72839763113116</v>
       </c>
       <c r="G12" t="n">
-        <v>220.5122189218916</v>
+        <v>34.06652425878406</v>
       </c>
       <c r="H12" t="n">
-        <v>111.6743546454769</v>
+        <v>34.06652425878406</v>
       </c>
       <c r="I12" t="n">
         <v>34.06652425878406</v>
@@ -5124,16 +5124,16 @@
         <v>251.8842320606625</v>
       </c>
       <c r="L12" t="n">
-        <v>560.3457870852426</v>
+        <v>500.6386454419185</v>
       </c>
       <c r="M12" t="n">
-        <v>973.106066682032</v>
+        <v>913.3989250387078</v>
       </c>
       <c r="N12" t="n">
-        <v>1252.600661780036</v>
+        <v>1334.97216274116</v>
       </c>
       <c r="O12" t="n">
-        <v>1586.648307567935</v>
+        <v>1334.97216274116</v>
       </c>
       <c r="P12" t="n">
         <v>1586.648307567935</v>
@@ -5145,25 +5145,25 @@
         <v>1703.326212939203</v>
       </c>
       <c r="S12" t="n">
-        <v>1661.380018524655</v>
+        <v>1537.928460555004</v>
       </c>
       <c r="T12" t="n">
-        <v>1585.588895004342</v>
+        <v>1462.137337034691</v>
       </c>
       <c r="U12" t="n">
-        <v>1482.132679300083</v>
+        <v>1358.681121330432</v>
       </c>
       <c r="V12" t="n">
         <v>1247.881435825684</v>
       </c>
       <c r="W12" t="n">
-        <v>1118.818502128668</v>
+        <v>995.366944159017</v>
       </c>
       <c r="X12" t="n">
-        <v>912.2916035342456</v>
+        <v>788.8400455645944</v>
       </c>
       <c r="Y12" t="n">
-        <v>706.5631677578961</v>
+        <v>583.1116097882449</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.194719352176</v>
+        <v>264.1947193521759</v>
       </c>
       <c r="C13" t="n">
-        <v>218.6194561791985</v>
+        <v>218.6194561791983</v>
       </c>
       <c r="D13" t="n">
-        <v>191.5603409018603</v>
+        <v>191.5603409018602</v>
       </c>
       <c r="E13" t="n">
         <v>166.5526825349465</v>
@@ -5191,28 +5191,28 @@
         <v>96.4728669901575</v>
       </c>
       <c r="H13" t="n">
-        <v>58.77271761294809</v>
+        <v>58.7727176129481</v>
       </c>
       <c r="I13" t="n">
         <v>34.06652425878406</v>
       </c>
       <c r="J13" t="n">
-        <v>83.59486313550519</v>
+        <v>83.59486313550528</v>
       </c>
       <c r="K13" t="n">
-        <v>217.0512192704845</v>
+        <v>217.0512192704846</v>
       </c>
       <c r="L13" t="n">
-        <v>409.796115770362</v>
+        <v>409.7961157703622</v>
       </c>
       <c r="M13" t="n">
-        <v>617.034228133929</v>
+        <v>617.0342281339297</v>
       </c>
       <c r="N13" t="n">
-        <v>827.3629308988042</v>
+        <v>827.3629308988048</v>
       </c>
       <c r="O13" t="n">
-        <v>1015.535458151649</v>
+        <v>1015.53545815165</v>
       </c>
       <c r="P13" t="n">
         <v>1170.789938119825</v>
@@ -5227,22 +5227,22 @@
         <v>1094.344198962326</v>
       </c>
       <c r="T13" t="n">
-        <v>988.1733288433222</v>
+        <v>988.1733288433221</v>
       </c>
       <c r="U13" t="n">
-        <v>822.6961752060579</v>
+        <v>822.6961752060578</v>
       </c>
       <c r="V13" t="n">
         <v>690.6564694717299</v>
       </c>
       <c r="W13" t="n">
-        <v>525.1256265450019</v>
+        <v>525.1256265450016</v>
       </c>
       <c r="X13" t="n">
-        <v>420.1525785224214</v>
+        <v>420.1525785224212</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.6458800599833</v>
+        <v>322.6458800599831</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>810.2187076132242</v>
+        <v>710.7744878421788</v>
       </c>
       <c r="C14" t="n">
-        <v>562.9782497455594</v>
+        <v>710.7744878421788</v>
       </c>
       <c r="D14" t="n">
-        <v>541.8065706948021</v>
+        <v>573.6798353221278</v>
       </c>
       <c r="E14" t="n">
-        <v>541.8065706948021</v>
+        <v>310.1434783874481</v>
       </c>
       <c r="F14" t="n">
-        <v>541.8065706948021</v>
+        <v>310.1434783874481</v>
       </c>
       <c r="G14" t="n">
-        <v>246.7432394358704</v>
+        <v>310.1434783874481</v>
       </c>
       <c r="H14" t="n">
-        <v>34.06652425878406</v>
+        <v>97.46676321036182</v>
       </c>
       <c r="I14" t="n">
         <v>34.06652425878406</v>
       </c>
       <c r="J14" t="n">
-        <v>77.52907775793119</v>
+        <v>77.52907775793125</v>
       </c>
       <c r="K14" t="n">
-        <v>264.9447716800296</v>
+        <v>264.9447716800303</v>
       </c>
       <c r="L14" t="n">
-        <v>549.419590542828</v>
+        <v>549.4195905428285</v>
       </c>
       <c r="M14" t="n">
-        <v>881.1649328151698</v>
+        <v>881.16493281517</v>
       </c>
       <c r="N14" t="n">
         <v>1202.761086562286</v>
@@ -5306,22 +5306,22 @@
         <v>1630.918232527938</v>
       </c>
       <c r="T14" t="n">
-        <v>1630.918232527938</v>
+        <v>1531.474012756893</v>
       </c>
       <c r="U14" t="n">
-        <v>1500.394273759062</v>
+        <v>1400.950053988017</v>
       </c>
       <c r="V14" t="n">
-        <v>1291.994092817078</v>
+        <v>1192.549873046032</v>
       </c>
       <c r="W14" t="n">
-        <v>1061.374825533643</v>
+        <v>961.9306057625978</v>
       </c>
       <c r="X14" t="n">
-        <v>810.2187076132242</v>
+        <v>710.7744878421788</v>
       </c>
       <c r="Y14" t="n">
-        <v>810.2187076132242</v>
+        <v>710.7744878421788</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>547.1835803612476</v>
+        <v>176.828906452294</v>
       </c>
       <c r="C15" t="n">
-        <v>374.4304652830647</v>
+        <v>127.5273493437623</v>
       </c>
       <c r="D15" t="n">
-        <v>350.2937166116596</v>
+        <v>103.3906006723573</v>
       </c>
       <c r="E15" t="n">
-        <v>192.6841876145143</v>
+        <v>69.23262964486312</v>
       </c>
       <c r="F15" t="n">
-        <v>47.7283976311312</v>
+        <v>47.72839763113113</v>
       </c>
       <c r="G15" t="n">
         <v>34.06652425878406</v>
@@ -5355,25 +5355,25 @@
         <v>34.06652425878406</v>
       </c>
       <c r="J15" t="n">
-        <v>67.73456855645821</v>
+        <v>67.73456855645816</v>
       </c>
       <c r="K15" t="n">
-        <v>251.8842320606625</v>
+        <v>67.73456855645816</v>
       </c>
       <c r="L15" t="n">
-        <v>560.3457870852426</v>
+        <v>376.1961235810381</v>
       </c>
       <c r="M15" t="n">
-        <v>579.3512792508091</v>
+        <v>788.9564031778274</v>
       </c>
       <c r="N15" t="n">
-        <v>1000.924516953262</v>
+        <v>1210.52964088028</v>
       </c>
       <c r="O15" t="n">
-        <v>1334.97216274116</v>
+        <v>1451.650068112428</v>
       </c>
       <c r="P15" t="n">
-        <v>1586.648307567935</v>
+        <v>1703.326212939203</v>
       </c>
       <c r="Q15" t="n">
         <v>1703.326212939203</v>
@@ -5385,22 +5385,22 @@
         <v>1459.894398622065</v>
       </c>
       <c r="T15" t="n">
-        <v>1384.103275101751</v>
+        <v>1260.6517171321</v>
       </c>
       <c r="U15" t="n">
-        <v>1157.195501427842</v>
+        <v>1033.743943458191</v>
       </c>
       <c r="V15" t="n">
-        <v>1008.641283611294</v>
+        <v>799.4926999837915</v>
       </c>
       <c r="W15" t="n">
-        <v>879.578349914278</v>
+        <v>546.9782083171248</v>
       </c>
       <c r="X15" t="n">
-        <v>673.0514513198555</v>
+        <v>340.4513097227023</v>
       </c>
       <c r="Y15" t="n">
-        <v>590.774573513157</v>
+        <v>258.1744319160039</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.1947193521752</v>
+        <v>264.1947193521755</v>
       </c>
       <c r="C16" t="n">
-        <v>218.6194561791977</v>
+        <v>218.619456179198</v>
       </c>
       <c r="D16" t="n">
-        <v>191.5603409018595</v>
+        <v>191.5603409018598</v>
       </c>
       <c r="E16" t="n">
-        <v>166.5526825349457</v>
+        <v>166.5526825349461</v>
       </c>
       <c r="F16" t="n">
-        <v>142.3688653431781</v>
+        <v>142.3688653431784</v>
       </c>
       <c r="G16" t="n">
-        <v>96.47286699015731</v>
+        <v>96.47286699015717</v>
       </c>
       <c r="H16" t="n">
-        <v>58.77271761294787</v>
+        <v>58.77271761294803</v>
       </c>
       <c r="I16" t="n">
         <v>34.06652425878406</v>
       </c>
       <c r="J16" t="n">
-        <v>83.59486313550525</v>
+        <v>83.59486313550528</v>
       </c>
       <c r="K16" t="n">
-        <v>217.0512192704845</v>
+        <v>217.0512192704848</v>
       </c>
       <c r="L16" t="n">
-        <v>409.796115770362</v>
+        <v>409.7961157703623</v>
       </c>
       <c r="M16" t="n">
-        <v>617.034228133929</v>
+        <v>617.0342281339293</v>
       </c>
       <c r="N16" t="n">
-        <v>827.3629308988041</v>
+        <v>827.3629308988043</v>
       </c>
       <c r="O16" t="n">
         <v>1015.53545815165</v>
@@ -5476,10 +5476,10 @@
         <v>525.1256265450012</v>
       </c>
       <c r="X16" t="n">
-        <v>420.1525785224206</v>
+        <v>420.1525785224208</v>
       </c>
       <c r="Y16" t="n">
-        <v>322.6458800599826</v>
+        <v>322.6458800599827</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.3197410499635</v>
+        <v>964.3197410499643</v>
       </c>
       <c r="C17" t="n">
-        <v>819.2418285455885</v>
+        <v>819.2418285455894</v>
       </c>
       <c r="D17" t="n">
-        <v>684.6491311163088</v>
+        <v>684.6491311163097</v>
       </c>
       <c r="E17" t="n">
-        <v>523.2753195449188</v>
+        <v>523.2753195449186</v>
       </c>
       <c r="F17" t="n">
-        <v>337.4814799682225</v>
+        <v>337.4814799682223</v>
       </c>
       <c r="G17" t="n">
-        <v>144.5806940725806</v>
+        <v>144.5806940725805</v>
       </c>
       <c r="H17" t="n">
         <v>34.06652425878406</v>
@@ -5552,13 +5552,13 @@
         <v>1568.727163954922</v>
       </c>
       <c r="W17" t="n">
-        <v>1440.270442034777</v>
+        <v>1440.270442034778</v>
       </c>
       <c r="X17" t="n">
-        <v>1291.276869477648</v>
+        <v>1291.276869477649</v>
       </c>
       <c r="Y17" t="n">
-        <v>1126.297971041664</v>
+        <v>1126.297971041665</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>902.9245605769643</v>
+        <v>646.4983896594936</v>
       </c>
       <c r="C18" t="n">
-        <v>730.1714454987814</v>
+        <v>473.7452745813107</v>
       </c>
       <c r="D18" t="n">
-        <v>582.5831388577253</v>
+        <v>473.7452745813107</v>
       </c>
       <c r="E18" t="n">
-        <v>424.97360986058</v>
+        <v>316.1357455841654</v>
       </c>
       <c r="F18" t="n">
-        <v>280.0178198771969</v>
+        <v>171.1799556007823</v>
       </c>
       <c r="G18" t="n">
-        <v>142.9043885351987</v>
+        <v>34.06652425878406</v>
       </c>
       <c r="H18" t="n">
         <v>34.06652425878406</v>
@@ -5595,19 +5595,19 @@
         <v>67.73456855645821</v>
       </c>
       <c r="K18" t="n">
-        <v>251.8842320606625</v>
+        <v>109.805589456214</v>
       </c>
       <c r="L18" t="n">
-        <v>560.3457870852426</v>
+        <v>418.2671444807941</v>
       </c>
       <c r="M18" t="n">
-        <v>973.106066682032</v>
+        <v>831.0274240775834</v>
       </c>
       <c r="N18" t="n">
-        <v>1000.924516953262</v>
+        <v>1252.600661780036</v>
       </c>
       <c r="O18" t="n">
-        <v>1334.97216274116</v>
+        <v>1586.648307567935</v>
       </c>
       <c r="P18" t="n">
         <v>1586.648307567935</v>
@@ -5616,28 +5616,28 @@
         <v>1703.326212939203</v>
       </c>
       <c r="R18" t="n">
-        <v>1703.326212939203</v>
+        <v>1625.292151006264</v>
       </c>
       <c r="S18" t="n">
-        <v>1537.928460555004</v>
+        <v>1459.894398622065</v>
       </c>
       <c r="T18" t="n">
-        <v>1537.928460555004</v>
+        <v>1260.6517171321</v>
       </c>
       <c r="U18" t="n">
-        <v>1536.634790214035</v>
+        <v>1033.743943458191</v>
       </c>
       <c r="V18" t="n">
-        <v>1527.997650072577</v>
+        <v>799.4926999837915</v>
       </c>
       <c r="W18" t="n">
-        <v>1482.222446069296</v>
+        <v>646.4983896594936</v>
       </c>
       <c r="X18" t="n">
-        <v>1275.695547474874</v>
+        <v>646.4983896594936</v>
       </c>
       <c r="Y18" t="n">
-        <v>1069.967111698525</v>
+        <v>646.4983896594936</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.01075514585844</v>
+        <v>34.06652425878406</v>
       </c>
       <c r="C19" t="n">
-        <v>50.01075514585844</v>
+        <v>34.06652425878406</v>
       </c>
       <c r="D19" t="n">
-        <v>50.01075514585844</v>
+        <v>34.06652425878406</v>
       </c>
       <c r="E19" t="n">
         <v>34.06652425878406</v>
@@ -5692,31 +5692,31 @@
         <v>395.2923674467731</v>
       </c>
       <c r="Q19" t="n">
-        <v>395.2923674467731</v>
+        <v>334.6457997114863</v>
       </c>
       <c r="R19" t="n">
-        <v>395.2923674467731</v>
+        <v>334.6457997114863</v>
       </c>
       <c r="S19" t="n">
-        <v>395.2923674467731</v>
+        <v>334.6457997114863</v>
       </c>
       <c r="T19" t="n">
-        <v>391.2840426910587</v>
+        <v>330.6374749557721</v>
       </c>
       <c r="U19" t="n">
-        <v>327.9694344170841</v>
+        <v>267.3228666817976</v>
       </c>
       <c r="V19" t="n">
-        <v>298.092274046046</v>
+        <v>237.4457063107596</v>
       </c>
       <c r="W19" t="n">
-        <v>234.7239764826076</v>
+        <v>36.87702691807468</v>
       </c>
       <c r="X19" t="n">
-        <v>231.9134738233168</v>
+        <v>34.06652425878406</v>
       </c>
       <c r="Y19" t="n">
-        <v>231.9134738233168</v>
+        <v>34.06652425878406</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.3197410499633</v>
+        <v>964.3197410499643</v>
       </c>
       <c r="C20" t="n">
-        <v>819.2418285455884</v>
+        <v>819.2418285455894</v>
       </c>
       <c r="D20" t="n">
-        <v>684.6491311163087</v>
+        <v>684.6491311163098</v>
       </c>
       <c r="E20" t="n">
-        <v>523.2753195449187</v>
+        <v>523.27531954492</v>
       </c>
       <c r="F20" t="n">
         <v>337.4814799682223</v>
       </c>
       <c r="G20" t="n">
-        <v>144.5806940725806</v>
+        <v>144.5806940725805</v>
       </c>
       <c r="H20" t="n">
         <v>34.06652425878406</v>
@@ -5759,7 +5759,7 @@
         <v>549.4195905428278</v>
       </c>
       <c r="M20" t="n">
-        <v>881.1649328151695</v>
+        <v>881.1649328151693</v>
       </c>
       <c r="N20" t="n">
         <v>1202.761086562285</v>
@@ -5789,13 +5789,13 @@
         <v>1568.727163954922</v>
       </c>
       <c r="W20" t="n">
-        <v>1440.270442034777</v>
+        <v>1440.270442034778</v>
       </c>
       <c r="X20" t="n">
-        <v>1291.276869477648</v>
+        <v>1291.276869477649</v>
       </c>
       <c r="Y20" t="n">
-        <v>1126.297971041664</v>
+        <v>1126.297971041665</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>326.6106208832233</v>
+        <v>499.3637359614061</v>
       </c>
       <c r="C21" t="n">
         <v>326.6106208832233</v>
@@ -5838,13 +5838,13 @@
         <v>560.3457870852426</v>
       </c>
       <c r="M21" t="n">
-        <v>913.3989250387078</v>
+        <v>973.106066682032</v>
       </c>
       <c r="N21" t="n">
-        <v>1334.97216274116</v>
+        <v>1394.679304384485</v>
       </c>
       <c r="O21" t="n">
-        <v>1334.97216274116</v>
+        <v>1394.679304384485</v>
       </c>
       <c r="P21" t="n">
         <v>1586.648307567935</v>
@@ -5853,28 +5853,28 @@
         <v>1703.326212939203</v>
       </c>
       <c r="R21" t="n">
-        <v>1703.326212939203</v>
+        <v>1625.292151006264</v>
       </c>
       <c r="S21" t="n">
-        <v>1537.928460555004</v>
+        <v>1459.894398622065</v>
       </c>
       <c r="T21" t="n">
-        <v>1338.685779065039</v>
+        <v>1459.894398622065</v>
       </c>
       <c r="U21" t="n">
-        <v>1111.77800539113</v>
+        <v>1232.986624948155</v>
       </c>
       <c r="V21" t="n">
-        <v>877.5267619167305</v>
+        <v>1224.349484806697</v>
       </c>
       <c r="W21" t="n">
-        <v>625.0122702500638</v>
+        <v>1078.661621453739</v>
       </c>
       <c r="X21" t="n">
-        <v>625.0122702500638</v>
+        <v>872.1347228593162</v>
       </c>
       <c r="Y21" t="n">
-        <v>419.2838344737143</v>
+        <v>666.4062870829666</v>
       </c>
     </row>
     <row r="22">
@@ -5929,25 +5929,25 @@
         <v>395.2923674467731</v>
       </c>
       <c r="Q22" t="n">
-        <v>395.2923674467731</v>
+        <v>334.6457997114863</v>
       </c>
       <c r="R22" t="n">
-        <v>395.2923674467731</v>
+        <v>334.6457997114863</v>
       </c>
       <c r="S22" t="n">
-        <v>395.2923674467731</v>
+        <v>334.6457997114863</v>
       </c>
       <c r="T22" t="n">
-        <v>391.2840426910587</v>
+        <v>330.6374749557721</v>
       </c>
       <c r="U22" t="n">
-        <v>327.9694344170841</v>
+        <v>267.3228666817976</v>
       </c>
       <c r="V22" t="n">
-        <v>298.092274046046</v>
+        <v>100.2453244815131</v>
       </c>
       <c r="W22" t="n">
-        <v>234.7239764826076</v>
+        <v>36.87702691807468</v>
       </c>
       <c r="X22" t="n">
         <v>34.06652425878406</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.3197410499631</v>
+        <v>964.3197410499636</v>
       </c>
       <c r="C23" t="n">
-        <v>819.2418285455882</v>
+        <v>819.2418285455888</v>
       </c>
       <c r="D23" t="n">
-        <v>684.6491311163085</v>
+        <v>684.6491311163093</v>
       </c>
       <c r="E23" t="n">
-        <v>523.2753195449185</v>
+        <v>523.2753195449194</v>
       </c>
       <c r="F23" t="n">
-        <v>337.4814799682221</v>
+        <v>337.4814799682231</v>
       </c>
       <c r="G23" t="n">
-        <v>144.5806940725806</v>
+        <v>144.5806940725805</v>
       </c>
       <c r="H23" t="n">
         <v>34.06652425878406</v>
@@ -5987,16 +5987,16 @@
         <v>34.06652425878406</v>
       </c>
       <c r="J23" t="n">
-        <v>77.52907775793111</v>
+        <v>77.52907775793133</v>
       </c>
       <c r="K23" t="n">
-        <v>264.9447716800292</v>
+        <v>264.9447716800294</v>
       </c>
       <c r="L23" t="n">
-        <v>549.4195905428276</v>
+        <v>549.4195905428278</v>
       </c>
       <c r="M23" t="n">
-        <v>881.1649328151693</v>
+        <v>881.1649328151695</v>
       </c>
       <c r="N23" t="n">
         <v>1202.761086562285</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>473.2670326105268</v>
+        <v>427.606126518253</v>
       </c>
       <c r="C24" t="n">
-        <v>300.513917532344</v>
+        <v>427.606126518253</v>
       </c>
       <c r="D24" t="n">
-        <v>300.513917532344</v>
+        <v>280.0178198771969</v>
       </c>
       <c r="E24" t="n">
-        <v>142.9043885351987</v>
+        <v>280.0178198771969</v>
       </c>
       <c r="F24" t="n">
-        <v>142.9043885351987</v>
+        <v>280.0178198771969</v>
       </c>
       <c r="G24" t="n">
         <v>142.9043885351987</v>
@@ -6066,52 +6066,52 @@
         <v>34.06652425878406</v>
       </c>
       <c r="J24" t="n">
-        <v>67.73456855645821</v>
+        <v>34.06652425878406</v>
       </c>
       <c r="K24" t="n">
-        <v>251.8842320606625</v>
+        <v>34.06652425878406</v>
       </c>
       <c r="L24" t="n">
-        <v>560.3457870852426</v>
+        <v>342.5280792833641</v>
       </c>
       <c r="M24" t="n">
-        <v>579.3512792508091</v>
+        <v>755.2883588801535</v>
       </c>
       <c r="N24" t="n">
-        <v>1000.924516953262</v>
+        <v>1117.60242232453</v>
       </c>
       <c r="O24" t="n">
-        <v>1334.97216274116</v>
+        <v>1451.650068112428</v>
       </c>
       <c r="P24" t="n">
-        <v>1586.648307567935</v>
+        <v>1703.326212939203</v>
       </c>
       <c r="Q24" t="n">
         <v>1703.326212939203</v>
       </c>
       <c r="R24" t="n">
-        <v>1703.326212939203</v>
+        <v>1625.292151006264</v>
       </c>
       <c r="S24" t="n">
-        <v>1703.326212939203</v>
+        <v>1459.894398622065</v>
       </c>
       <c r="T24" t="n">
-        <v>1504.083531449239</v>
+        <v>1260.6517171321</v>
       </c>
       <c r="U24" t="n">
-        <v>1313.716549910984</v>
+        <v>1033.743943458191</v>
       </c>
       <c r="V24" t="n">
-        <v>1305.079409769526</v>
+        <v>799.4926999837915</v>
       </c>
       <c r="W24" t="n">
-        <v>1052.564918102859</v>
+        <v>772.5923116500657</v>
       </c>
       <c r="X24" t="n">
-        <v>846.0380195084368</v>
+        <v>633.3345622946025</v>
       </c>
       <c r="Y24" t="n">
-        <v>640.3095837320873</v>
+        <v>427.606126518253</v>
       </c>
     </row>
     <row r="25">
@@ -6175,16 +6175,16 @@
         <v>395.2923674467731</v>
       </c>
       <c r="T25" t="n">
-        <v>391.2840426910587</v>
+        <v>193.4370931265256</v>
       </c>
       <c r="U25" t="n">
-        <v>327.9694344170841</v>
+        <v>130.1224848525511</v>
       </c>
       <c r="V25" t="n">
-        <v>100.2453244815133</v>
+        <v>100.2453244815131</v>
       </c>
       <c r="W25" t="n">
-        <v>36.87702691807478</v>
+        <v>36.87702691807468</v>
       </c>
       <c r="X25" t="n">
         <v>34.06652425878406</v>
@@ -6200,70 +6200,70 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1523.285082261381</v>
+        <v>1523.285082261382</v>
       </c>
       <c r="C26" t="n">
-        <v>1296.196304029382</v>
+        <v>1296.196304029383</v>
       </c>
       <c r="D26" t="n">
-        <v>1079.592740872479</v>
+        <v>1079.59274087248</v>
       </c>
       <c r="E26" t="n">
-        <v>836.208063573465</v>
+        <v>836.2080635734661</v>
       </c>
       <c r="F26" t="n">
-        <v>568.4033582691447</v>
+        <v>568.4033582691454</v>
       </c>
       <c r="G26" t="n">
-        <v>293.4917066458792</v>
+        <v>293.4917066458786</v>
       </c>
       <c r="H26" t="n">
-        <v>100.9666711044588</v>
+        <v>100.9666711044585</v>
       </c>
       <c r="I26" t="n">
-        <v>57.71811178854685</v>
+        <v>57.71811178854683</v>
       </c>
       <c r="J26" t="n">
-        <v>241.9261984646655</v>
+        <v>241.9261984646654</v>
       </c>
       <c r="K26" t="n">
-        <v>570.0874255637348</v>
+        <v>570.0874255637349</v>
       </c>
       <c r="L26" t="n">
-        <v>995.3077776035044</v>
+        <v>995.3077776035047</v>
       </c>
       <c r="M26" t="n">
-        <v>1467.798653052817</v>
+        <v>1467.798653052818</v>
       </c>
       <c r="N26" t="n">
-        <v>1930.140339976904</v>
+        <v>1930.140339976905</v>
       </c>
       <c r="O26" t="n">
-        <v>2328.431650381222</v>
+        <v>2328.431650381223</v>
       </c>
       <c r="P26" t="n">
         <v>2652.047752721587</v>
       </c>
       <c r="Q26" t="n">
-        <v>2852.942065884737</v>
+        <v>2852.942065884736</v>
       </c>
       <c r="R26" t="n">
         <v>2885.905589427342</v>
       </c>
       <c r="S26" t="n">
-        <v>2833.649288651744</v>
+        <v>2833.649288651743</v>
       </c>
       <c r="T26" t="n">
         <v>2754.356748516363</v>
       </c>
       <c r="U26" t="n">
-        <v>2643.984469383154</v>
+        <v>2643.984469383153</v>
       </c>
       <c r="V26" t="n">
         <v>2455.735968076835</v>
       </c>
       <c r="W26" t="n">
-        <v>2245.268380429067</v>
+        <v>2245.268380429066</v>
       </c>
       <c r="X26" t="n">
         <v>2014.263942144314</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>817.7382838303124</v>
+        <v>546.200245683247</v>
       </c>
       <c r="C27" t="n">
-        <v>644.9851687521295</v>
+        <v>507.8717374101314</v>
       </c>
       <c r="D27" t="n">
-        <v>497.3968621110735</v>
+        <v>360.2834307690753</v>
       </c>
       <c r="E27" t="n">
-        <v>339.7873331139282</v>
+        <v>202.67390177193</v>
       </c>
       <c r="F27" t="n">
-        <v>194.831543130545</v>
+        <v>57.71811178854683</v>
       </c>
       <c r="G27" t="n">
-        <v>57.71811178854685</v>
+        <v>57.71811178854683</v>
       </c>
       <c r="H27" t="n">
-        <v>57.71811178854685</v>
+        <v>57.71811178854683</v>
       </c>
       <c r="I27" t="n">
-        <v>57.71811178854685</v>
+        <v>57.71811178854683</v>
       </c>
       <c r="J27" t="n">
-        <v>91.38615608622101</v>
+        <v>91.38615608622098</v>
       </c>
       <c r="K27" t="n">
         <v>275.5358195904253</v>
@@ -6330,25 +6330,25 @@
         <v>2060.208836259401</v>
       </c>
       <c r="S27" t="n">
-        <v>2038.414321480519</v>
+        <v>1894.811083875202</v>
       </c>
       <c r="T27" t="n">
-        <v>1839.171639990555</v>
+        <v>1695.568402385238</v>
       </c>
       <c r="U27" t="n">
-        <v>1612.263866316645</v>
+        <v>1468.660628711328</v>
       </c>
       <c r="V27" t="n">
-        <v>1378.012622842246</v>
+        <v>1234.409385236929</v>
       </c>
       <c r="W27" t="n">
-        <v>1253.432931717328</v>
+        <v>981.8948935702623</v>
       </c>
       <c r="X27" t="n">
-        <v>1190.509270728222</v>
+        <v>775.3679949758398</v>
       </c>
       <c r="Y27" t="n">
-        <v>984.7808349518729</v>
+        <v>713.2427968048074</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>146.7845494322771</v>
+        <v>146.7845494322759</v>
       </c>
       <c r="C28" t="n">
-        <v>121.3609658949655</v>
+        <v>121.3609658949645</v>
       </c>
       <c r="D28" t="n">
-        <v>114.4535302532933</v>
+        <v>114.4535302532924</v>
       </c>
       <c r="E28" t="n">
-        <v>109.5975515220455</v>
+        <v>109.5975515220448</v>
       </c>
       <c r="F28" t="n">
-        <v>105.5654139659438</v>
+        <v>105.5654139659433</v>
       </c>
       <c r="G28" t="n">
-        <v>79.82109524858839</v>
+        <v>79.82109524858802</v>
       </c>
       <c r="H28" t="n">
-        <v>62.27262550704492</v>
+        <v>62.27262550704473</v>
       </c>
       <c r="I28" t="n">
-        <v>57.71811178854685</v>
+        <v>57.71811178854683</v>
       </c>
       <c r="J28" t="n">
-        <v>126.9971118761842</v>
+        <v>126.9971118761844</v>
       </c>
       <c r="K28" t="n">
-        <v>139.4585960451086</v>
+        <v>139.4585960451087</v>
       </c>
       <c r="L28" t="n">
-        <v>211.2086205789311</v>
+        <v>211.2086205789312</v>
       </c>
       <c r="M28" t="n">
-        <v>297.4518609764431</v>
+        <v>297.4518609764432</v>
       </c>
       <c r="N28" t="n">
-        <v>469.335660625164</v>
+        <v>527.5312249522347</v>
       </c>
       <c r="O28" t="n">
-        <v>677.2588490889254</v>
+        <v>677.258849088922</v>
       </c>
       <c r="P28" t="n">
-        <v>852.2639902680164</v>
+        <v>852.2639902680132</v>
       </c>
       <c r="Q28" t="n">
-        <v>933.5698224076331</v>
+        <v>933.5698224076301</v>
       </c>
       <c r="R28" t="n">
-        <v>912.7267530195594</v>
+        <v>912.7267530195566</v>
       </c>
       <c r="S28" t="n">
-        <v>835.872271592766</v>
+        <v>835.8722715927634</v>
       </c>
       <c r="T28" t="n">
-        <v>749.8530811094278</v>
+        <v>749.8530811094254</v>
       </c>
       <c r="U28" t="n">
-        <v>604.5276071078293</v>
+        <v>604.5276071078272</v>
       </c>
       <c r="V28" t="n">
-        <v>492.6395810091674</v>
+        <v>492.6395810091655</v>
       </c>
       <c r="W28" t="n">
-        <v>347.2604177181051</v>
+        <v>347.2604177181033</v>
       </c>
       <c r="X28" t="n">
-        <v>262.4390493311906</v>
+        <v>262.439049331189</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.0840305044185</v>
+        <v>185.0840305044171</v>
       </c>
     </row>
     <row r="29">
@@ -6446,31 +6446,31 @@
         <v>1079.592740872478</v>
       </c>
       <c r="E29" t="n">
-        <v>836.2080635734646</v>
+        <v>836.2080635734644</v>
       </c>
       <c r="F29" t="n">
-        <v>568.4033582691445</v>
+        <v>568.4033582691443</v>
       </c>
       <c r="G29" t="n">
-        <v>293.4917066458789</v>
+        <v>293.4917066458788</v>
       </c>
       <c r="H29" t="n">
-        <v>100.9666711044586</v>
+        <v>100.9666711044585</v>
       </c>
       <c r="I29" t="n">
-        <v>57.71811178854682</v>
+        <v>57.71811178854681</v>
       </c>
       <c r="J29" t="n">
-        <v>241.9261984646654</v>
+        <v>241.9261984646653</v>
       </c>
       <c r="K29" t="n">
-        <v>570.0874255637345</v>
+        <v>570.0874255637348</v>
       </c>
       <c r="L29" t="n">
-        <v>995.3077776035043</v>
+        <v>995.3077776035034</v>
       </c>
       <c r="M29" t="n">
-        <v>1467.798653052817</v>
+        <v>1467.798653052816</v>
       </c>
       <c r="N29" t="n">
         <v>1930.140339976904</v>
@@ -6479,16 +6479,16 @@
         <v>2328.431650381222</v>
       </c>
       <c r="P29" t="n">
-        <v>2652.047752721585</v>
+        <v>2652.047752721584</v>
       </c>
       <c r="Q29" t="n">
-        <v>2852.942065884736</v>
+        <v>2852.942065884735</v>
       </c>
       <c r="R29" t="n">
         <v>2885.905589427341</v>
       </c>
       <c r="S29" t="n">
-        <v>2833.649288651743</v>
+        <v>2833.649288651742</v>
       </c>
       <c r="T29" t="n">
         <v>2754.356748516363</v>
@@ -6497,7 +6497,7 @@
         <v>2643.984469383153</v>
       </c>
       <c r="V29" t="n">
-        <v>2455.735968076835</v>
+        <v>2455.735968076834</v>
       </c>
       <c r="W29" t="n">
         <v>2245.268380429066</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>758.2326828750072</v>
+        <v>402.5970080779298</v>
       </c>
       <c r="C30" t="n">
-        <v>585.4795677968243</v>
+        <v>229.843892999747</v>
       </c>
       <c r="D30" t="n">
-        <v>437.8912611557681</v>
+        <v>82.25558635869083</v>
       </c>
       <c r="E30" t="n">
-        <v>280.2817321586228</v>
+        <v>68.24929496686269</v>
       </c>
       <c r="F30" t="n">
-        <v>135.3259421752397</v>
+        <v>57.71811178854681</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3259421752397</v>
+        <v>57.71811178854681</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3259421752397</v>
+        <v>57.71811178854681</v>
       </c>
       <c r="I30" t="n">
-        <v>57.71811178854682</v>
+        <v>57.71811178854681</v>
       </c>
       <c r="J30" t="n">
-        <v>91.38615608622098</v>
+        <v>91.38615608622096</v>
       </c>
       <c r="K30" t="n">
         <v>275.5358195904253</v>
@@ -6564,28 +6564,28 @@
         <v>2138.24289819234</v>
       </c>
       <c r="R30" t="n">
-        <v>2138.24289819234</v>
+        <v>2060.208836259401</v>
       </c>
       <c r="S30" t="n">
-        <v>2116.448383413458</v>
+        <v>1894.811083875202</v>
       </c>
       <c r="T30" t="n">
-        <v>1917.205701923494</v>
+        <v>1695.568402385238</v>
       </c>
       <c r="U30" t="n">
-        <v>1690.297928249584</v>
+        <v>1468.660628711328</v>
       </c>
       <c r="V30" t="n">
-        <v>1456.046684775185</v>
+        <v>1234.409385236929</v>
       </c>
       <c r="W30" t="n">
-        <v>1203.532193108518</v>
+        <v>981.8948935702623</v>
       </c>
       <c r="X30" t="n">
-        <v>997.0052945140955</v>
+        <v>775.3679949758398</v>
       </c>
       <c r="Y30" t="n">
-        <v>791.2768587377459</v>
+        <v>569.6395591994902</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146.7845494322765</v>
+        <v>146.7845494322763</v>
       </c>
       <c r="C31" t="n">
-        <v>121.360965894965</v>
+        <v>121.3609658949648</v>
       </c>
       <c r="D31" t="n">
-        <v>114.4535302532928</v>
+        <v>114.4535302532927</v>
       </c>
       <c r="E31" t="n">
-        <v>109.5975515220451</v>
+        <v>109.597551522045</v>
       </c>
       <c r="F31" t="n">
         <v>105.5654139659435</v>
       </c>
       <c r="G31" t="n">
-        <v>79.82109524858819</v>
+        <v>79.82109524858814</v>
       </c>
       <c r="H31" t="n">
-        <v>62.27262550704481</v>
+        <v>62.27262550704477</v>
       </c>
       <c r="I31" t="n">
-        <v>57.71811178854682</v>
+        <v>57.71811178854681</v>
       </c>
       <c r="J31" t="n">
-        <v>57.71811178854682</v>
+        <v>57.71811178854681</v>
       </c>
       <c r="K31" t="n">
-        <v>162.5688638576529</v>
+        <v>162.5688638576525</v>
       </c>
       <c r="L31" t="n">
-        <v>375.0644215684467</v>
+        <v>375.0644215684464</v>
       </c>
       <c r="M31" t="n">
-        <v>461.3076619659587</v>
+        <v>461.3076619659584</v>
       </c>
       <c r="N31" t="n">
-        <v>550.6414927647788</v>
+        <v>550.6414927647785</v>
       </c>
       <c r="O31" t="n">
-        <v>758.5646812285404</v>
+        <v>758.5646812285401</v>
       </c>
       <c r="P31" t="n">
-        <v>933.5698224076315</v>
+        <v>933.5698224076311</v>
       </c>
       <c r="Q31" t="n">
-        <v>933.5698224076315</v>
+        <v>933.5698224076311</v>
       </c>
       <c r="R31" t="n">
-        <v>912.7267530195579</v>
+        <v>912.7267530195576</v>
       </c>
       <c r="S31" t="n">
-        <v>835.8722715927646</v>
+        <v>835.8722715927643</v>
       </c>
       <c r="T31" t="n">
-        <v>749.8530811094265</v>
+        <v>749.8530811094262</v>
       </c>
       <c r="U31" t="n">
-        <v>604.5276071078282</v>
+        <v>604.5276071078279</v>
       </c>
       <c r="V31" t="n">
-        <v>492.6395810091664</v>
+        <v>492.6395810091661</v>
       </c>
       <c r="W31" t="n">
-        <v>347.2604177181042</v>
+        <v>347.2604177181039</v>
       </c>
       <c r="X31" t="n">
-        <v>262.4390493311897</v>
+        <v>262.4390493311895</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.0840305044177</v>
+        <v>185.0840305044175</v>
       </c>
     </row>
     <row r="32">
@@ -6683,52 +6683,52 @@
         <v>1069.478583512795</v>
       </c>
       <c r="E32" t="n">
-        <v>828.0000358700288</v>
+        <v>828.0000358700289</v>
       </c>
       <c r="F32" t="n">
-        <v>562.1014602219566</v>
+        <v>562.1014602219568</v>
       </c>
       <c r="G32" t="n">
-        <v>289.0959382549396</v>
+        <v>289.0959382549394</v>
       </c>
       <c r="H32" t="n">
-        <v>98.47703236976734</v>
+        <v>98.47703236976724</v>
       </c>
       <c r="I32" t="n">
-        <v>57.13460271010356</v>
+        <v>57.13460271010354</v>
       </c>
       <c r="J32" t="n">
-        <v>243.2108870623107</v>
+        <v>197.805163133791</v>
       </c>
       <c r="K32" t="n">
-        <v>527.8345879089511</v>
+        <v>527.8345879089491</v>
       </c>
       <c r="L32" t="n">
-        <v>954.9231376248094</v>
+        <v>954.9231376248074</v>
       </c>
       <c r="M32" t="n">
-        <v>1429.282210750211</v>
+        <v>1429.282210750209</v>
       </c>
       <c r="N32" t="n">
-        <v>1893.492095350387</v>
+        <v>1893.492095350385</v>
       </c>
       <c r="O32" t="n">
-        <v>2293.651603430793</v>
+        <v>2293.651603430792</v>
       </c>
       <c r="P32" t="n">
-        <v>2619.135903447245</v>
+        <v>2619.135903447243</v>
       </c>
       <c r="Q32" t="n">
-        <v>2821.898414286484</v>
+        <v>2821.898414286483</v>
       </c>
       <c r="R32" t="n">
-        <v>2856.730135505178</v>
+        <v>2856.730135505177</v>
       </c>
       <c r="S32" t="n">
         <v>2806.379964385827</v>
       </c>
       <c r="T32" t="n">
-        <v>2728.993553906696</v>
+        <v>2728.993553906695</v>
       </c>
       <c r="U32" t="n">
         <v>2620.527404429733</v>
@@ -6756,28 +6756,28 @@
         <v>625.5569281939901</v>
       </c>
       <c r="C33" t="n">
-        <v>598.3131803773723</v>
+        <v>452.8038131158073</v>
       </c>
       <c r="D33" t="n">
-        <v>450.7248737363162</v>
+        <v>305.2155064747511</v>
       </c>
       <c r="E33" t="n">
-        <v>293.1153447391708</v>
+        <v>293.115344739171</v>
       </c>
       <c r="F33" t="n">
-        <v>148.1595547557877</v>
+        <v>194.2480340521017</v>
       </c>
       <c r="G33" t="n">
-        <v>148.1595547557877</v>
+        <v>57.13460271010354</v>
       </c>
       <c r="H33" t="n">
-        <v>57.13460271010356</v>
+        <v>57.13460271010354</v>
       </c>
       <c r="I33" t="n">
-        <v>57.13460271010356</v>
+        <v>57.13460271010354</v>
       </c>
       <c r="J33" t="n">
-        <v>90.80264700777771</v>
+        <v>90.80264700777769</v>
       </c>
       <c r="K33" t="n">
         <v>274.952310511982</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8581327600976</v>
+        <v>132.858132760097</v>
       </c>
       <c r="C34" t="n">
-        <v>109.3406788790341</v>
+        <v>109.3406788790336</v>
       </c>
       <c r="D34" t="n">
-        <v>104.3393728936099</v>
+        <v>104.3393728936095</v>
       </c>
       <c r="E34" t="n">
-        <v>101.3895238186101</v>
+        <v>101.3895238186098</v>
       </c>
       <c r="F34" t="n">
-        <v>99.26351591875648</v>
+        <v>99.26351591875621</v>
       </c>
       <c r="G34" t="n">
-        <v>75.42532685764905</v>
+        <v>75.42532685764887</v>
       </c>
       <c r="H34" t="n">
-        <v>59.7829867723536</v>
+        <v>59.7829867723535</v>
       </c>
       <c r="I34" t="n">
-        <v>57.13460271010356</v>
+        <v>57.13460271010354</v>
       </c>
       <c r="J34" t="n">
-        <v>128.2818004738297</v>
+        <v>57.13460271010354</v>
       </c>
       <c r="K34" t="n">
-        <v>140.743284642754</v>
+        <v>69.59608687902787</v>
       </c>
       <c r="L34" t="n">
-        <v>355.1070400296364</v>
+        <v>141.3461114128504</v>
       </c>
       <c r="M34" t="n">
-        <v>441.3502804271484</v>
+        <v>370.2030826634224</v>
       </c>
       <c r="N34" t="n">
-        <v>530.6841112259685</v>
+        <v>459.5369134622425</v>
       </c>
       <c r="O34" t="n">
-        <v>740.4754973658187</v>
+        <v>669.3282996020928</v>
       </c>
       <c r="P34" t="n">
-        <v>902.4882388292214</v>
+        <v>819.3142090135144</v>
       </c>
       <c r="Q34" t="n">
-        <v>902.4882388292214</v>
+        <v>902.4882388292199</v>
       </c>
       <c r="R34" t="n">
-        <v>883.5512990973957</v>
+        <v>883.5512990973943</v>
       </c>
       <c r="S34" t="n">
-        <v>808.6029473268503</v>
+        <v>808.6029473268491</v>
       </c>
       <c r="T34" t="n">
-        <v>724.4898864997601</v>
+        <v>724.489886499759</v>
       </c>
       <c r="U34" t="n">
-        <v>581.0705421544097</v>
+        <v>581.0705421544087</v>
       </c>
       <c r="V34" t="n">
-        <v>471.0886457119959</v>
+        <v>471.0886457119949</v>
       </c>
       <c r="W34" t="n">
-        <v>327.6156120771816</v>
+        <v>327.6156120771807</v>
       </c>
       <c r="X34" t="n">
-        <v>244.7003733465151</v>
+        <v>244.7003733465143</v>
       </c>
       <c r="Y34" t="n">
-        <v>169.251484175991</v>
+        <v>169.2514841759903</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>981.2954069933745</v>
+        <v>981.2954069933643</v>
       </c>
       <c r="C35" t="n">
-        <v>833.4991688967541</v>
+        <v>833.4991688967453</v>
       </c>
       <c r="D35" t="n">
-        <v>696.1881458752291</v>
+        <v>696.1881458752216</v>
       </c>
       <c r="E35" t="n">
-        <v>532.0960087115939</v>
+        <v>532.0960087115878</v>
       </c>
       <c r="F35" t="n">
-        <v>343.5838435426519</v>
+        <v>343.5838435426476</v>
       </c>
       <c r="G35" t="n">
-        <v>147.9647320547636</v>
+        <v>147.9647320547619</v>
       </c>
       <c r="H35" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="I35" t="n">
-        <v>67.35214375566807</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="J35" t="n">
-        <v>110.8146972548153</v>
+        <v>78.19479014786864</v>
       </c>
       <c r="K35" t="n">
-        <v>298.2303911769134</v>
+        <v>265.6104840699667</v>
       </c>
       <c r="L35" t="n">
-        <v>582.7052100397118</v>
+        <v>550.0853029327651</v>
       </c>
       <c r="M35" t="n">
-        <v>914.4505523120536</v>
+        <v>881.8306452051069</v>
       </c>
       <c r="N35" t="n">
-        <v>1236.046706059169</v>
+        <v>1203.426798952222</v>
       </c>
       <c r="O35" t="n">
-        <v>1493.592483286516</v>
+        <v>1460.972576179569</v>
       </c>
       <c r="P35" t="n">
-        <v>1676.463052449908</v>
+        <v>1643.843145342961</v>
       </c>
       <c r="Q35" t="n">
-        <v>1736.611832436087</v>
+        <v>1703.99192532914</v>
       </c>
       <c r="R35" t="n">
-        <v>1736.611832436087</v>
+        <v>1736.611832436068</v>
       </c>
       <c r="S35" t="n">
-        <v>1736.611832436087</v>
+        <v>1736.611832436068</v>
       </c>
       <c r="T35" t="n">
-        <v>1736.611832436086</v>
+        <v>1736.611832436068</v>
       </c>
       <c r="U35" t="n">
-        <v>1705.532093438255</v>
+        <v>1705.532093438238</v>
       </c>
       <c r="V35" t="n">
-        <v>1596.576132267315</v>
+        <v>1596.576132267299</v>
       </c>
       <c r="W35" t="n">
-        <v>1465.401084754925</v>
+        <v>1465.401084754911</v>
       </c>
       <c r="X35" t="n">
-        <v>1313.68918660555</v>
+        <v>1313.689186605537</v>
       </c>
       <c r="Y35" t="n">
-        <v>1145.99196257732</v>
+        <v>1145.991962577309</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>333.4062458274349</v>
+        <v>327.2763332731606</v>
       </c>
       <c r="C36" t="n">
-        <v>333.4062458274349</v>
+        <v>327.2763332731606</v>
       </c>
       <c r="D36" t="n">
-        <v>269.9495960325599</v>
+        <v>179.6880266321045</v>
       </c>
       <c r="E36" t="n">
-        <v>112.3400670354146</v>
+        <v>179.6880266321045</v>
       </c>
       <c r="F36" t="n">
-        <v>112.3400670354146</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="G36" t="n">
-        <v>112.3400670354146</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="H36" t="n">
-        <v>112.3400670354146</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="I36" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="J36" t="n">
-        <v>68.40028094639587</v>
+        <v>68.40028094639551</v>
       </c>
       <c r="K36" t="n">
-        <v>68.40028094639587</v>
+        <v>252.5499444505998</v>
       </c>
       <c r="L36" t="n">
-        <v>376.8618359709759</v>
+        <v>252.5499444505998</v>
       </c>
       <c r="M36" t="n">
-        <v>789.6221155677653</v>
+        <v>665.3102240473892</v>
       </c>
       <c r="N36" t="n">
-        <v>1034.210136450145</v>
+        <v>1095.121652575316</v>
       </c>
       <c r="O36" t="n">
-        <v>1368.257782238043</v>
+        <v>1368.257782238026</v>
       </c>
       <c r="P36" t="n">
-        <v>1619.933927064818</v>
+        <v>1619.9339270648</v>
       </c>
       <c r="Q36" t="n">
-        <v>1736.611832436086</v>
+        <v>1736.611832436068</v>
       </c>
       <c r="R36" t="n">
-        <v>1658.577770503147</v>
+        <v>1736.611832436068</v>
       </c>
       <c r="S36" t="n">
-        <v>1658.577770503147</v>
+        <v>1736.611832436068</v>
       </c>
       <c r="T36" t="n">
-        <v>1459.335089013183</v>
+        <v>1620.247727580469</v>
       </c>
       <c r="U36" t="n">
-        <v>1232.427315339273</v>
+        <v>1393.339953906559</v>
       </c>
       <c r="V36" t="n">
-        <v>998.1760718648736</v>
+        <v>1159.08871043216</v>
       </c>
       <c r="W36" t="n">
-        <v>745.6615801982069</v>
+        <v>906.5742187654931</v>
       </c>
       <c r="X36" t="n">
-        <v>539.1346816037844</v>
+        <v>700.0473201710706</v>
       </c>
       <c r="Y36" t="n">
-        <v>333.4062458274349</v>
+        <v>494.3188843947211</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="C37" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="D37" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="E37" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="F37" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="G37" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="H37" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="I37" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="J37" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="K37" t="n">
-        <v>47.19372081764604</v>
+        <v>47.19372081764568</v>
       </c>
       <c r="L37" t="n">
-        <v>118.9437453514686</v>
+        <v>118.9437453514682</v>
       </c>
       <c r="M37" t="n">
-        <v>205.1869857489805</v>
+        <v>205.1869857489802</v>
       </c>
       <c r="N37" t="n">
-        <v>294.5208165478006</v>
+        <v>294.5208165478003</v>
       </c>
       <c r="O37" t="n">
-        <v>361.6984718345909</v>
+        <v>361.6984718345906</v>
       </c>
       <c r="P37" t="n">
-        <v>395.9580798367107</v>
+        <v>395.9580798367104</v>
       </c>
       <c r="Q37" t="n">
-        <v>395.9580798367107</v>
+        <v>395.9580798367104</v>
       </c>
       <c r="R37" t="n">
-        <v>395.9580798367107</v>
+        <v>395.9580798367104</v>
       </c>
       <c r="S37" t="n">
-        <v>395.9580798367107</v>
+        <v>395.9580798367104</v>
       </c>
       <c r="T37" t="n">
-        <v>389.231429488751</v>
+        <v>389.231429488752</v>
       </c>
       <c r="U37" t="n">
-        <v>323.198495622531</v>
+        <v>323.1984956225335</v>
       </c>
       <c r="V37" t="n">
-        <v>290.6030096592476</v>
+        <v>290.6030096592515</v>
       </c>
       <c r="W37" t="n">
-        <v>224.5163865035637</v>
+        <v>224.516386503569</v>
       </c>
       <c r="X37" t="n">
-        <v>218.9875582520276</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>981.2954069933736</v>
+        <v>981.2954069933647</v>
       </c>
       <c r="C38" t="n">
-        <v>833.4991688967532</v>
+        <v>833.4991688967458</v>
       </c>
       <c r="D38" t="n">
-        <v>696.1881458752282</v>
+        <v>696.1881458752221</v>
       </c>
       <c r="E38" t="n">
-        <v>532.096008711593</v>
+        <v>532.0960087115882</v>
       </c>
       <c r="F38" t="n">
-        <v>343.583843542651</v>
+        <v>343.5838435426478</v>
       </c>
       <c r="G38" t="n">
-        <v>147.9647320547636</v>
+        <v>147.9647320547619</v>
       </c>
       <c r="H38" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="I38" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="J38" t="n">
-        <v>78.19479014786899</v>
+        <v>78.19479014786864</v>
       </c>
       <c r="K38" t="n">
-        <v>265.6104840699671</v>
+        <v>265.6104840699667</v>
       </c>
       <c r="L38" t="n">
-        <v>556.2069918431903</v>
+        <v>556.2069918431712</v>
       </c>
       <c r="M38" t="n">
-        <v>887.952334115532</v>
+        <v>887.9523341155129</v>
       </c>
       <c r="N38" t="n">
-        <v>1209.548487862648</v>
+        <v>1209.548487862629</v>
       </c>
       <c r="O38" t="n">
-        <v>1467.094265089994</v>
+        <v>1467.094265089975</v>
       </c>
       <c r="P38" t="n">
-        <v>1649.964834253386</v>
+        <v>1649.964834253367</v>
       </c>
       <c r="Q38" t="n">
-        <v>1710.113614239566</v>
+        <v>1710.113614239546</v>
       </c>
       <c r="R38" t="n">
-        <v>1710.113614239566</v>
+        <v>1710.113614239546</v>
       </c>
       <c r="S38" t="n">
-        <v>1736.611832436086</v>
+        <v>1736.611832436068</v>
       </c>
       <c r="T38" t="n">
-        <v>1736.611832436085</v>
+        <v>1736.611832436068</v>
       </c>
       <c r="U38" t="n">
-        <v>1705.532093438254</v>
+        <v>1705.532093438238</v>
       </c>
       <c r="V38" t="n">
-        <v>1596.576132267314</v>
+        <v>1596.576132267299</v>
       </c>
       <c r="W38" t="n">
-        <v>1465.401084754924</v>
+        <v>1465.401084754911</v>
       </c>
       <c r="X38" t="n">
-        <v>1313.689186605549</v>
+        <v>1313.689186605538</v>
       </c>
       <c r="Y38" t="n">
-        <v>1145.99196257732</v>
+        <v>1145.991962577309</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>621.9992936123044</v>
+        <v>512.6831873651056</v>
       </c>
       <c r="C39" t="n">
-        <v>621.9992936123044</v>
+        <v>339.9300722869228</v>
       </c>
       <c r="D39" t="n">
-        <v>474.4109869712483</v>
+        <v>192.3417656458667</v>
       </c>
       <c r="E39" t="n">
-        <v>316.8014579741031</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="F39" t="n">
-        <v>171.8456679907199</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="G39" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="H39" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="I39" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="J39" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="K39" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="L39" t="n">
-        <v>343.1937916733017</v>
+        <v>343.1937916733014</v>
       </c>
       <c r="M39" t="n">
-        <v>755.9540712700912</v>
+        <v>755.9540712700907</v>
       </c>
       <c r="N39" t="n">
-        <v>1150.888041821413</v>
+        <v>1185.765499798018</v>
       </c>
       <c r="O39" t="n">
-        <v>1484.935687609311</v>
+        <v>1484.935687609294</v>
       </c>
       <c r="P39" t="n">
-        <v>1736.611832436086</v>
+        <v>1736.611832436068</v>
       </c>
       <c r="Q39" t="n">
-        <v>1736.611832436086</v>
+        <v>1736.611832436068</v>
       </c>
       <c r="R39" t="n">
-        <v>1736.611832436086</v>
+        <v>1658.577770503129</v>
       </c>
       <c r="S39" t="n">
-        <v>1736.611832436086</v>
+        <v>1658.577770503129</v>
       </c>
       <c r="T39" t="n">
-        <v>1736.611832436086</v>
+        <v>1459.335089013165</v>
       </c>
       <c r="U39" t="n">
-        <v>1509.704058762176</v>
+        <v>1355.851030257807</v>
       </c>
       <c r="V39" t="n">
-        <v>1453.811670771304</v>
+        <v>1344.495564524105</v>
       </c>
       <c r="W39" t="n">
-        <v>1201.297179104637</v>
+        <v>1091.981072857438</v>
       </c>
       <c r="X39" t="n">
-        <v>994.7702805102144</v>
+        <v>885.4541742630156</v>
       </c>
       <c r="Y39" t="n">
-        <v>789.0418447338649</v>
+        <v>679.725738486666</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>218.9875582520276</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="C40" t="n">
-        <v>218.9875582520276</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="D40" t="n">
-        <v>218.9875582520276</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="E40" t="n">
-        <v>70.52834191546282</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="F40" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="G40" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="H40" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="I40" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="J40" t="n">
-        <v>34.73223664872172</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="K40" t="n">
-        <v>47.19372081764604</v>
+        <v>47.19372081764568</v>
       </c>
       <c r="L40" t="n">
-        <v>118.9437453514686</v>
+        <v>118.9437453514682</v>
       </c>
       <c r="M40" t="n">
-        <v>205.1869857489805</v>
+        <v>205.1869857489802</v>
       </c>
       <c r="N40" t="n">
-        <v>294.5208165478006</v>
+        <v>294.5208165478003</v>
       </c>
       <c r="O40" t="n">
-        <v>361.6984718345909</v>
+        <v>361.6984718345906</v>
       </c>
       <c r="P40" t="n">
-        <v>395.9580798367107</v>
+        <v>395.9580798367104</v>
       </c>
       <c r="Q40" t="n">
-        <v>395.9580798367107</v>
+        <v>395.9580798367104</v>
       </c>
       <c r="R40" t="n">
-        <v>395.9580798367107</v>
+        <v>395.9580798367104</v>
       </c>
       <c r="S40" t="n">
-        <v>395.9580798367107</v>
+        <v>395.9580798367104</v>
       </c>
       <c r="T40" t="n">
-        <v>389.231429488751</v>
+        <v>204.9761078854391</v>
       </c>
       <c r="U40" t="n">
-        <v>323.198495622531</v>
+        <v>138.9431740192205</v>
       </c>
       <c r="V40" t="n">
-        <v>290.6030096592476</v>
+        <v>106.3476880559385</v>
       </c>
       <c r="W40" t="n">
-        <v>224.5163865035637</v>
+        <v>40.26106490025604</v>
       </c>
       <c r="X40" t="n">
-        <v>218.9875582520276</v>
+        <v>34.73223664872136</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.9875582520276</v>
+        <v>34.73223664872136</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1150.475540352216</v>
+        <v>1140.176591483081</v>
       </c>
       <c r="C41" t="n">
-        <v>975.6430628958158</v>
+        <v>975.6430628958155</v>
       </c>
       <c r="D41" t="n">
-        <v>811.2958005145108</v>
+        <v>811.2958005145106</v>
       </c>
       <c r="E41" t="n">
-        <v>620.1674239910956</v>
+        <v>620.1674239910955</v>
       </c>
       <c r="F41" t="n">
-        <v>404.619019462374</v>
+        <v>404.6190194623739</v>
       </c>
       <c r="G41" t="n">
-        <v>181.963668614707</v>
+        <v>181.9636686147068</v>
       </c>
       <c r="H41" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="I41" t="n">
-        <v>50.52342125352418</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="J41" t="n">
-        <v>93.98597475267147</v>
+        <v>85.15748734803233</v>
       </c>
       <c r="K41" t="n">
-        <v>281.4016686747696</v>
+        <v>272.5731812701304</v>
       </c>
       <c r="L41" t="n">
-        <v>565.876487537568</v>
+        <v>746.6106059402671</v>
       </c>
       <c r="M41" t="n">
-        <v>986.4435548203202</v>
+        <v>1262.58541232022</v>
       </c>
       <c r="N41" t="n">
-        <v>1500.001642134571</v>
+        <v>1584.181566067336</v>
       </c>
       <c r="O41" t="n">
-        <v>1757.547419361918</v>
+        <v>1841.727343294682</v>
       </c>
       <c r="P41" t="n">
-        <v>1940.41798852531</v>
+        <v>2024.597912458074</v>
       </c>
       <c r="Q41" t="n">
-        <v>2000.566768511489</v>
+        <v>2084.746692444253</v>
       </c>
       <c r="R41" t="n">
-        <v>2084.746692444259</v>
+        <v>2084.746692444253</v>
       </c>
       <c r="S41" t="n">
-        <v>2084.746692444259</v>
+        <v>2084.746692444253</v>
       </c>
       <c r="T41" t="n">
-        <v>2057.710453084478</v>
+        <v>2057.710453084472</v>
       </c>
       <c r="U41" t="n">
-        <v>1999.594474726866</v>
+        <v>1999.594474726861</v>
       </c>
       <c r="V41" t="n">
-        <v>1863.602274196146</v>
+        <v>1863.602274196141</v>
       </c>
       <c r="W41" t="n">
-        <v>1715.689936193106</v>
+        <v>1705.390987323971</v>
       </c>
       <c r="X41" t="n">
-        <v>1536.941798683951</v>
+        <v>1526.642849814816</v>
       </c>
       <c r="Y41" t="n">
-        <v>1342.208335295942</v>
+        <v>1331.909386426807</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>788.3921550279019</v>
+        <v>654.1267992495946</v>
       </c>
       <c r="C42" t="n">
-        <v>615.6390399497191</v>
+        <v>481.3736841714117</v>
       </c>
       <c r="D42" t="n">
-        <v>468.0507333086629</v>
+        <v>481.3736841714117</v>
       </c>
       <c r="E42" t="n">
-        <v>310.4412043115176</v>
+        <v>323.7641551742664</v>
       </c>
       <c r="F42" t="n">
-        <v>178.8083651908834</v>
+        <v>178.8083651908833</v>
       </c>
       <c r="G42" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="H42" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="I42" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="J42" t="n">
-        <v>75.36297814655933</v>
+        <v>75.36297814655921</v>
       </c>
       <c r="K42" t="n">
-        <v>259.5126416507636</v>
+        <v>222.0396138423387</v>
       </c>
       <c r="L42" t="n">
-        <v>567.9741966753437</v>
+        <v>530.5011688669188</v>
       </c>
       <c r="M42" t="n">
-        <v>980.7344762721332</v>
+        <v>943.2614484637081</v>
       </c>
       <c r="N42" t="n">
-        <v>1419.818024266737</v>
+        <v>1382.344996458312</v>
       </c>
       <c r="O42" t="n">
-        <v>1753.865670054636</v>
+        <v>1716.392642246211</v>
       </c>
       <c r="P42" t="n">
-        <v>1968.068787072991</v>
+        <v>1968.068787072985</v>
       </c>
       <c r="Q42" t="n">
-        <v>2084.746692444259</v>
+        <v>2084.746692444253</v>
       </c>
       <c r="R42" t="n">
-        <v>2084.746692444259</v>
+        <v>2006.712630511315</v>
       </c>
       <c r="S42" t="n">
-        <v>2084.746692444259</v>
+        <v>1841.314878127115</v>
       </c>
       <c r="T42" t="n">
-        <v>1885.504010954294</v>
+        <v>1642.072196637151</v>
       </c>
       <c r="U42" t="n">
-        <v>1658.596237280385</v>
+        <v>1415.164422963241</v>
       </c>
       <c r="V42" t="n">
-        <v>1620.204532186901</v>
+        <v>1180.913179488842</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.690040520234</v>
+        <v>928.3986878221752</v>
       </c>
       <c r="X42" t="n">
-        <v>1161.163141925812</v>
+        <v>721.8717892277527</v>
       </c>
       <c r="Y42" t="n">
-        <v>955.4347061494624</v>
+        <v>654.1267992495946</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="C43" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="D43" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="E43" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="F43" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="G43" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="H43" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="I43" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="J43" t="n">
-        <v>42.31770774684685</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="K43" t="n">
-        <v>54.77919191577118</v>
+        <v>54.15641801780939</v>
       </c>
       <c r="L43" t="n">
-        <v>126.5292164495937</v>
+        <v>125.9064425516319</v>
       </c>
       <c r="M43" t="n">
-        <v>212.7724568471057</v>
+        <v>212.1496829491439</v>
       </c>
       <c r="N43" t="n">
-        <v>302.1062876459258</v>
+        <v>301.483513747964</v>
       </c>
       <c r="O43" t="n">
-        <v>369.2839429327161</v>
+        <v>368.6611690347543</v>
       </c>
       <c r="P43" t="n">
-        <v>403.5435509348359</v>
+        <v>402.9207770368741</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.5435509348359</v>
+        <v>402.9207770368741</v>
       </c>
       <c r="R43" t="n">
-        <v>403.5435509348359</v>
+        <v>403.5435509348356</v>
       </c>
       <c r="S43" t="n">
-        <v>378.9453702836411</v>
+        <v>378.9453702836408</v>
       </c>
       <c r="T43" t="n">
-        <v>345.1824805759015</v>
+        <v>345.1824805759013</v>
       </c>
       <c r="U43" t="n">
-        <v>252.1133073499017</v>
+        <v>252.1133073499015</v>
       </c>
       <c r="V43" t="n">
-        <v>192.4815820268383</v>
+        <v>192.4815820268382</v>
       </c>
       <c r="W43" t="n">
-        <v>99.35871951137463</v>
+        <v>99.35871951137446</v>
       </c>
       <c r="X43" t="n">
-        <v>66.79365190005868</v>
+        <v>66.79365190005853</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1150.475540352217</v>
+        <v>1140.176591483082</v>
       </c>
       <c r="C44" t="n">
-        <v>975.6430628958173</v>
+        <v>965.3441140266813</v>
       </c>
       <c r="D44" t="n">
-        <v>811.2958005145122</v>
+        <v>800.9968516453763</v>
       </c>
       <c r="E44" t="n">
-        <v>620.1674239910968</v>
+        <v>609.8684751219612</v>
       </c>
       <c r="F44" t="n">
-        <v>404.6190194623752</v>
+        <v>394.3200705932397</v>
       </c>
       <c r="G44" t="n">
-        <v>181.963668614707</v>
+        <v>171.6647197455731</v>
       </c>
       <c r="H44" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="I44" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="J44" t="n">
         <v>277.1194209151678</v>
       </c>
       <c r="K44" t="n">
-        <v>464.535114837266</v>
+        <v>464.5351148372658</v>
       </c>
       <c r="L44" t="n">
-        <v>930.8400700478835</v>
+        <v>749.0099337000643</v>
       </c>
       <c r="M44" t="n">
-        <v>1262.585412320225</v>
+        <v>1080.755275972406</v>
       </c>
       <c r="N44" t="n">
-        <v>1584.181566067341</v>
+        <v>1402.351429719522</v>
       </c>
       <c r="O44" t="n">
-        <v>1841.727343294688</v>
+        <v>1757.547419361912</v>
       </c>
       <c r="P44" t="n">
-        <v>2024.597912458079</v>
+        <v>1940.417988525304</v>
       </c>
       <c r="Q44" t="n">
-        <v>2084.746692444259</v>
+        <v>2000.566768511484</v>
       </c>
       <c r="R44" t="n">
-        <v>2084.746692444259</v>
+        <v>2084.746692444253</v>
       </c>
       <c r="S44" t="n">
-        <v>2084.746692444259</v>
+        <v>2084.746692444253</v>
       </c>
       <c r="T44" t="n">
-        <v>2057.710453084478</v>
+        <v>2057.710453084472</v>
       </c>
       <c r="U44" t="n">
-        <v>2009.893423595997</v>
+        <v>1999.594474726861</v>
       </c>
       <c r="V44" t="n">
-        <v>1873.901223065277</v>
+        <v>1863.602274196141</v>
       </c>
       <c r="W44" t="n">
-        <v>1715.689936193107</v>
+        <v>1705.390987323971</v>
       </c>
       <c r="X44" t="n">
-        <v>1536.941798683953</v>
+        <v>1526.642849814817</v>
       </c>
       <c r="Y44" t="n">
-        <v>1342.208335295943</v>
+        <v>1331.909386426807</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>801.7151058906509</v>
+        <v>664.6016745486525</v>
       </c>
       <c r="C45" t="n">
-        <v>628.961990812468</v>
+        <v>491.8485594704696</v>
       </c>
       <c r="D45" t="n">
-        <v>481.3736841714118</v>
+        <v>344.2602528294135</v>
       </c>
       <c r="E45" t="n">
-        <v>323.7641551742665</v>
+        <v>186.6507238322682</v>
       </c>
       <c r="F45" t="n">
-        <v>178.8083651908834</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="G45" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="H45" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="I45" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="J45" t="n">
-        <v>75.36297814655933</v>
+        <v>75.36297814655921</v>
       </c>
       <c r="K45" t="n">
-        <v>222.0396138423441</v>
+        <v>259.5126416507635</v>
       </c>
       <c r="L45" t="n">
-        <v>530.5011688669242</v>
+        <v>530.5011688669188</v>
       </c>
       <c r="M45" t="n">
-        <v>943.2614484637136</v>
+        <v>943.2614484637081</v>
       </c>
       <c r="N45" t="n">
-        <v>1382.344996458318</v>
+        <v>1382.344996458312</v>
       </c>
       <c r="O45" t="n">
-        <v>1716.392642246216</v>
+        <v>1716.392642246211</v>
       </c>
       <c r="P45" t="n">
-        <v>1968.068787072991</v>
+        <v>1968.068787072985</v>
       </c>
       <c r="Q45" t="n">
-        <v>2084.746692444259</v>
+        <v>2084.746692444253</v>
       </c>
       <c r="R45" t="n">
-        <v>2084.746692444259</v>
+        <v>2006.712630511315</v>
       </c>
       <c r="S45" t="n">
-        <v>2084.746692444259</v>
+        <v>1841.314878127115</v>
       </c>
       <c r="T45" t="n">
-        <v>1885.504010954294</v>
+        <v>1642.072196637151</v>
       </c>
       <c r="U45" t="n">
-        <v>1658.596237280385</v>
+        <v>1415.164422963241</v>
       </c>
       <c r="V45" t="n">
-        <v>1466.48493192809</v>
+        <v>1180.913179488842</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.970440261423</v>
+        <v>928.3986878221752</v>
       </c>
       <c r="X45" t="n">
-        <v>1007.443541667</v>
+        <v>841.5131230656468</v>
       </c>
       <c r="Y45" t="n">
-        <v>801.7151058906509</v>
+        <v>831.6442256702129</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>42.31770774684702</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="C46" t="n">
-        <v>42.31770774684702</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="D46" t="n">
-        <v>42.31770774684702</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="E46" t="n">
-        <v>42.31770774684702</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="F46" t="n">
-        <v>42.31770774684702</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="G46" t="n">
-        <v>42.31770774684702</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="H46" t="n">
-        <v>42.31770774684702</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="I46" t="n">
-        <v>42.31770774684702</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="J46" t="n">
-        <v>42.31770774684702</v>
+        <v>41.69493384888506</v>
       </c>
       <c r="K46" t="n">
-        <v>54.77919191577135</v>
+        <v>54.15641801780939</v>
       </c>
       <c r="L46" t="n">
-        <v>126.5292164495939</v>
+        <v>125.9064425516319</v>
       </c>
       <c r="M46" t="n">
-        <v>212.7724568471059</v>
+        <v>212.1496829491439</v>
       </c>
       <c r="N46" t="n">
-        <v>302.106287645926</v>
+        <v>301.483513747964</v>
       </c>
       <c r="O46" t="n">
-        <v>369.2839429327163</v>
+        <v>369.2839429327158</v>
       </c>
       <c r="P46" t="n">
-        <v>403.5435509348361</v>
+        <v>403.5435509348356</v>
       </c>
       <c r="Q46" t="n">
-        <v>403.5435509348361</v>
+        <v>403.5435509348356</v>
       </c>
       <c r="R46" t="n">
-        <v>403.5435509348361</v>
+        <v>403.5435509348356</v>
       </c>
       <c r="S46" t="n">
-        <v>378.9453702836413</v>
+        <v>378.9453702836408</v>
       </c>
       <c r="T46" t="n">
-        <v>345.1824805759016</v>
+        <v>345.1824805759013</v>
       </c>
       <c r="U46" t="n">
-        <v>252.1133073499018</v>
+        <v>252.1133073499015</v>
       </c>
       <c r="V46" t="n">
-        <v>192.4815820268385</v>
+        <v>192.4815820268382</v>
       </c>
       <c r="W46" t="n">
-        <v>99.35871951137469</v>
+        <v>99.35871951137446</v>
       </c>
       <c r="X46" t="n">
-        <v>66.79365190005871</v>
+        <v>66.79365190005853</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.69493384888518</v>
+        <v>41.69493384888506</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>214.587604768856</v>
+        <v>221.8814682493969</v>
       </c>
       <c r="L8" t="n">
-        <v>229.8722545957376</v>
+        <v>237.1661180762784</v>
       </c>
       <c r="M8" t="n">
-        <v>227.5271966636498</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N8" t="n">
-        <v>230.971600487217</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O8" t="n">
         <v>231.6396196166854</v>
       </c>
       <c r="P8" t="n">
-        <v>232.7460343419286</v>
+        <v>232.4513327871593</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8535,10 +8535,10 @@
         <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>142.3843837659182</v>
+        <v>142.0896822111489</v>
       </c>
       <c r="M9" t="n">
-        <v>145.5798449997394</v>
+        <v>145.8745465545087</v>
       </c>
       <c r="N9" t="n">
         <v>128.05816928125</v>
@@ -8547,10 +8547,10 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>137.9189107095128</v>
       </c>
       <c r="Q9" t="n">
-        <v>143.7760932144118</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8617,10 +8617,10 @@
         <v>138.8064228547481</v>
       </c>
       <c r="M10" t="n">
-        <v>142.7465028294557</v>
+        <v>142.4518012746864</v>
       </c>
       <c r="N10" t="n">
-        <v>131.4925677793739</v>
+        <v>131.7872693341432</v>
       </c>
       <c r="O10" t="n">
         <v>142.2889884710875</v>
@@ -8772,19 +8772,19 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>325.3637150314318</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>337.3151067954775</v>
+        <v>480.8288872040114</v>
       </c>
       <c r="O12" t="n">
-        <v>409.6168120477987</v>
+        <v>72.19494761557765</v>
       </c>
       <c r="P12" t="n">
-        <v>76.98295127768166</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
         <v>218.4803792452831</v>
@@ -8927,7 +8927,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740124</v>
       </c>
       <c r="L14" t="n">
         <v>434.3676631324684</v>
@@ -9006,25 +9006,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>89.03408537772401</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>86.60115778361316</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>480.8288872040114</v>
+        <v>480.8288872040116</v>
       </c>
       <c r="O15" t="n">
-        <v>409.6168120477987</v>
+        <v>315.7509347187579</v>
       </c>
       <c r="P15" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>100.6239091732951</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9182,7 +9182,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
-        <v>220.8075902863007</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9243,7 +9243,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>131.530066084548</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9252,13 +9252,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>83.09677868762458</v>
+        <v>480.8288872040114</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>76.98295127768166</v>
       </c>
       <c r="Q18" t="n">
         <v>218.4803792452831</v>
@@ -9407,7 +9407,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M20" t="n">
-        <v>467.4940748325458</v>
+        <v>467.4940748325456</v>
       </c>
       <c r="N20" t="n">
         <v>454.8408013884635</v>
@@ -9486,7 +9486,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>424.0230222158341</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
         <v>480.8288872040114</v>
@@ -9495,7 +9495,7 @@
         <v>72.19494761557765</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>270.8910353013688</v>
       </c>
       <c r="Q21" t="n">
         <v>218.4803792452831</v>
@@ -9714,19 +9714,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>97.12655120081897</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>89.03408537772393</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>86.60115778361316</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>480.8288872040114</v>
+        <v>420.9711354281766</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9735,7 +9735,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>100.6239091732951</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10665,19 +10665,19 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>89.03408537772393</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>385.6739591155975</v>
+        <v>74.09663080794091</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>302.055940921109</v>
+        <v>489.1502920782277</v>
       </c>
       <c r="O36" t="n">
-        <v>409.6168120477987</v>
+        <v>348.0900280829611</v>
       </c>
       <c r="P36" t="n">
         <v>331.2012793855346</v>
@@ -10911,10 +10911,10 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>453.9205365463031</v>
+        <v>489.1502920782277</v>
       </c>
       <c r="O39" t="n">
-        <v>409.6168120477987</v>
+        <v>374.3870565158564</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
@@ -11139,7 +11139,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>275.0438464930818</v>
+        <v>237.1923032522487</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11154,7 +11154,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>293.3497361447066</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
         <v>218.4803792452831</v>
@@ -11376,10 +11376,10 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>237.192303252254</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
-        <v>385.6739591155975</v>
+        <v>347.8224158747644</v>
       </c>
       <c r="M45" t="n">
         <v>484.3332662999999</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.4993676014404</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>244.768053288988</v>
       </c>
       <c r="D11" t="n">
         <v>234.3876903646438</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>285.0768210905862</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>292.1126979463422</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>86.58687853367427</v>
       </c>
       <c r="I11" t="n">
-        <v>62.76623656206198</v>
+        <v>62.76623656206196</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>98.44977757333535</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>206.3161791325648</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>3.011521627616105</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.4700293612813</v>
+        <v>264.4700293612812</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.4993676014405</v>
+        <v>261.4993676014404</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>244.768053288988</v>
       </c>
       <c r="D14" t="n">
-        <v>213.4277281043943</v>
+        <v>98.66398436979371</v>
       </c>
       <c r="E14" t="n">
-        <v>260.9009933653329</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>285.0768210905863</v>
+        <v>285.0768210905862</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.1126979463422</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.76623656206201</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>98.44977757333538</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.4700293612813</v>
+        <v>264.4700293612812</v>
       </c>
     </row>
     <row r="15">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>10.19595938044316</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>10.19595938043847</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>10.19595938044234</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10.19595938043922</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>710039.0969314158</v>
+        <v>710039.096931416</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>805560.6203359434</v>
+        <v>805560.6203359431</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>805560.6203359434</v>
+        <v>805560.6203359431</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810370.4833891344</v>
+        <v>810370.4833891341</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810370.4833891344</v>
+        <v>810370.4833891341</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>751244.6494240598</v>
       </c>
       <c r="D2" t="n">
-        <v>752318.7437602046</v>
+        <v>752318.7437602044</v>
       </c>
       <c r="E2" t="n">
-        <v>646362.961050945</v>
+        <v>646362.9610509455</v>
       </c>
       <c r="F2" t="n">
-        <v>646362.9610509456</v>
+        <v>646362.9610509457</v>
       </c>
       <c r="G2" t="n">
+        <v>752875.4529688159</v>
+      </c>
+      <c r="H2" t="n">
         <v>752875.4529688163</v>
       </c>
-      <c r="H2" t="n">
-        <v>752875.452968816</v>
-      </c>
       <c r="I2" t="n">
-        <v>752875.4529688162</v>
+        <v>752875.4529688164</v>
       </c>
       <c r="J2" t="n">
-        <v>752875.4529688149</v>
+        <v>752875.4529688148</v>
       </c>
       <c r="K2" t="n">
-        <v>752875.4529688148</v>
+        <v>752875.4529688145</v>
       </c>
       <c r="L2" t="n">
-        <v>752875.452968817</v>
+        <v>752875.4529688167</v>
       </c>
       <c r="M2" t="n">
         <v>752875.452968816</v>
       </c>
       <c r="N2" t="n">
-        <v>752875.4529688164</v>
+        <v>752875.4529688165</v>
       </c>
       <c r="O2" t="n">
-        <v>752124.7244796344</v>
+        <v>752124.7244796341</v>
       </c>
       <c r="P2" t="n">
-        <v>752124.7244796344</v>
+        <v>752124.7244796341</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>327664.2004335158</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>80912.73592772552</v>
+        <v>80912.73592772553</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>110174.7278511513</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>82422.39061547388</v>
+        <v>82422.39061547394</v>
       </c>
       <c r="M3" t="n">
-        <v>95806.81313748439</v>
+        <v>95806.81313748435</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32353.07723169664</v>
+        <v>32353.07723169637</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>421902.138915459</v>
       </c>
       <c r="E4" t="n">
-        <v>286588.8226938598</v>
+        <v>286588.8226938599</v>
       </c>
       <c r="F4" t="n">
-        <v>286588.8226938598</v>
+        <v>286588.8226938599</v>
       </c>
       <c r="G4" t="n">
         <v>352050.9528290593</v>
@@ -26439,25 +26439,25 @@
         <v>352050.9528290593</v>
       </c>
       <c r="J4" t="n">
-        <v>350187.8194824471</v>
+        <v>350187.8194824473</v>
       </c>
       <c r="K4" t="n">
-        <v>350187.8194824472</v>
+        <v>350187.8194824473</v>
       </c>
       <c r="L4" t="n">
-        <v>350148.7527931992</v>
+        <v>350148.7527931991</v>
       </c>
       <c r="M4" t="n">
-        <v>351829.1435333717</v>
+        <v>351829.1435333719</v>
       </c>
       <c r="N4" t="n">
-        <v>351829.1435333717</v>
+        <v>351829.1435333719</v>
       </c>
       <c r="O4" t="n">
-        <v>349046.1968421146</v>
+        <v>349046.1968421143</v>
       </c>
       <c r="P4" t="n">
-        <v>349046.1968421146</v>
+        <v>349046.1968421144</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>39012.30265832738</v>
       </c>
       <c r="F5" t="n">
-        <v>39012.30265832737</v>
+        <v>39012.30265832738</v>
       </c>
       <c r="G5" t="n">
         <v>47515.11865421233</v>
@@ -26500,16 +26500,16 @@
         <v>58379.8764709985</v>
       </c>
       <c r="M5" t="n">
-        <v>47794.81842549262</v>
+        <v>47794.81842549246</v>
       </c>
       <c r="N5" t="n">
-        <v>47794.81842549262</v>
+        <v>47794.81842549246</v>
       </c>
       <c r="O5" t="n">
-        <v>50836.28778694689</v>
+        <v>50836.28778694681</v>
       </c>
       <c r="P5" t="n">
-        <v>50836.28778694688</v>
+        <v>50836.28778694681</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>295606.424137292</v>
+        <v>295602.016560144</v>
       </c>
       <c r="C6" t="n">
-        <v>295606.4241372921</v>
+        <v>295602.0165601441</v>
       </c>
       <c r="D6" t="n">
-        <v>294079.8451321684</v>
+        <v>294078.3405126854</v>
       </c>
       <c r="E6" t="n">
-        <v>-6902.364734757975</v>
+        <v>-7190.236334535596</v>
       </c>
       <c r="F6" t="n">
-        <v>320761.8356987584</v>
+        <v>320473.9640989804</v>
       </c>
       <c r="G6" t="n">
-        <v>272396.6455578191</v>
+        <v>272396.6455578187</v>
       </c>
       <c r="H6" t="n">
-        <v>353309.3814855444</v>
+        <v>353309.3814855446</v>
       </c>
       <c r="I6" t="n">
-        <v>353309.3814855445</v>
+        <v>353309.3814855447</v>
       </c>
       <c r="J6" t="n">
-        <v>233848.2062145315</v>
+        <v>233848.206214531</v>
       </c>
       <c r="K6" t="n">
-        <v>344022.9340656826</v>
+        <v>344022.9340656822</v>
       </c>
       <c r="L6" t="n">
-        <v>261924.4330891454</v>
+        <v>261924.4330891451</v>
       </c>
       <c r="M6" t="n">
         <v>257444.6778724673</v>
       </c>
       <c r="N6" t="n">
-        <v>353251.4910099521</v>
+        <v>353251.4910099522</v>
       </c>
       <c r="O6" t="n">
-        <v>319889.1626188763</v>
+        <v>319887.1336229599</v>
       </c>
       <c r="P6" t="n">
-        <v>352242.239850573</v>
+        <v>352240.2108546562</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>122.2170423899546</v>
       </c>
       <c r="F2" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="G2" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="H2" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="I2" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="J2" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="K2" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="L2" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="M2" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="N2" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="O2" t="n">
         <v>193.9009429971065</v>
       </c>
       <c r="P2" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
     </row>
     <row r="3">
@@ -26747,7 +26747,7 @@
         <v>130.5999855491013</v>
       </c>
       <c r="F3" t="n">
-        <v>130.5999855491013</v>
+        <v>130.5999855491011</v>
       </c>
       <c r="G3" t="n">
         <v>130.5999855491013</v>
@@ -26774,10 +26774,10 @@
         <v>130.5999855491013</v>
       </c>
       <c r="O3" t="n">
-        <v>130.5999855491014</v>
+        <v>130.5999855491013</v>
       </c>
       <c r="P3" t="n">
-        <v>130.5999855491014</v>
+        <v>130.5999855491013</v>
       </c>
     </row>
     <row r="4">
@@ -26811,25 +26811,25 @@
         <v>425.8315532348007</v>
       </c>
       <c r="J4" t="n">
-        <v>721.4763973568356</v>
+        <v>721.4763973568354</v>
       </c>
       <c r="K4" t="n">
-        <v>721.4763973568353</v>
+        <v>721.4763973568352</v>
       </c>
       <c r="L4" t="n">
-        <v>714.1825338762944</v>
+        <v>714.1825338762943</v>
       </c>
       <c r="M4" t="n">
-        <v>434.1529581090214</v>
+        <v>434.152958109017</v>
       </c>
       <c r="N4" t="n">
-        <v>434.1529581090214</v>
+        <v>434.152958109017</v>
       </c>
       <c r="O4" t="n">
-        <v>521.1866731110647</v>
+        <v>521.1866731110633</v>
       </c>
       <c r="P4" t="n">
-        <v>521.1866731110647</v>
+        <v>521.1866731110633</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>122.2170423899546</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>101.1409199096569</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.02628531960698</v>
+        <v>41.02628531960708</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>103.0279882693424</v>
       </c>
       <c r="M2" t="n">
-        <v>76.61254637433913</v>
+        <v>76.61254637434044</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>14.26040835342491</v>
+        <v>14.26040835342364</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>295.6448441220349</v>
+        <v>295.6448441220347</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.5081139869869</v>
+        <v>138.5081139869826</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>87.03371500204327</v>
+        <v>87.03371500204634</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>122.2170423899546</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>101.1409199096569</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.02628531960698</v>
+        <v>41.02628531960708</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27871,7 +27871,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>198.7998729144637</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
         <v>0.6592771345624158</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>135.4263877472167</v>
       </c>
       <c r="S8" t="n">
         <v>198.5710882429984</v>
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.9476906566845</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>163.7317204468602</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>149.6089987535135</v>
       </c>
       <c r="F9" t="n">
         <v>143.5062320835493</v>
@@ -27983,16 +27983,16 @@
         <v>161.6677504251035</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>191.0886684277278</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>224.6148675591143</v>
       </c>
       <c r="W9" t="n">
-        <v>242.6954832694592</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
         <v>204.4616296084783</v>
@@ -28017,16 +28017,16 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
-        <v>140.5501892195388</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
-        <v>138.8651579292637</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
         <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
-        <v>154.340208528376</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
         <v>153.7585467974036</v>
@@ -28056,7 +28056,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3911476697823</v>
+        <v>166.0972841892415</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
@@ -28065,19 +28065,19 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
-        <v>286.0522703910642</v>
+        <v>279.6278354374039</v>
       </c>
       <c r="V10" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
-        <v>286.0925768874155</v>
+        <v>278.7987134068747</v>
       </c>
       <c r="X10" t="n">
-        <v>226.1403599323093</v>
+        <v>218.8464964517684</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.4548103872274</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="11">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -28175,19 +28175,19 @@
         <v>122.2170423899546</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7.586334087662721</v>
+      </c>
+      <c r="G12" t="n">
         <v>122.2170423899546</v>
       </c>
-      <c r="F12" t="n">
-        <v>122.2170423899546</v>
-      </c>
-      <c r="G12" t="n">
-        <v>69.95052941418457</v>
-      </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.7494856336505</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.83175208282594</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>77.25372131360933</v>
       </c>
       <c r="S12" t="n">
-        <v>122.2170423899546</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>122.2170423899546</v>
@@ -28226,10 +28226,10 @@
         <v>122.2170423899546</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="W12" t="n">
-        <v>122.2170423899546</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="C14" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="D14" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="E14" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="F14" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="G14" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="H14" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="I14" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>108.8707168023897</v>
+        <v>108.8707168023898</v>
       </c>
       <c r="S14" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="T14" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="U14" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="W14" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="X14" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122.2170423899545</v>
+        <v>84.84005540127204</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="D15" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="G15" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="H15" t="n">
         <v>107.7494856336505</v>
       </c>
       <c r="I15" t="n">
-        <v>76.83175208282594</v>
+        <v>76.83175208282597</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28457,22 +28457,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>122.2170423899545</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>84.84005540127254</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>122.2170423899545</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="C16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="D16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="E16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="F16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="G16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="H16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="I16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="J16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="K16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="L16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="M16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="N16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="O16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="P16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="R16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="S16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="T16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="U16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="V16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="W16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="X16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
       <c r="Y16" t="n">
-        <v>122.2170423899545</v>
+        <v>122.2170423899546</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="C17" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="D17" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="E17" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="F17" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="G17" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="H17" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="I17" t="n">
         <v>184.9832789520165</v>
@@ -28618,19 +28618,19 @@
         <v>220.6668199632899</v>
       </c>
       <c r="U17" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="V17" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="W17" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="X17" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
     </row>
     <row r="18">
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.7494856336505</v>
       </c>
       <c r="I18" t="n">
         <v>76.83175208282594</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.25372131360933</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.2502546750647</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>223.3579622996114</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>223.3579622996114</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>204.6718947867527</v>
+        <v>98.52497952894515</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
         <v>167.3365529312023</v>
@@ -28728,7 +28728,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>131.1898355949955</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
         <v>146.1590214098045</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.04010205793387</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>162.8018439234568</v>
@@ -28773,19 +28773,19 @@
         <v>218.2531418417893</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="U19" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="V19" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="W19" t="n">
-        <v>223.3579622996114</v>
+        <v>87.5295842886575</v>
       </c>
       <c r="X19" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="C20" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="D20" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="E20" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="F20" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="G20" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="H20" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="I20" t="n">
         <v>184.9832789520165</v>
@@ -28837,7 +28837,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -28855,19 +28855,19 @@
         <v>220.6668199632899</v>
       </c>
       <c r="U20" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="V20" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="W20" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="X20" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
     </row>
     <row r="21">
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.62564415575879</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28925,25 +28925,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.25372131360933</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.2502546750647</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>105.7583620305714</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.04010205793387</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>162.8018439234568</v>
@@ -29010,19 +29010,19 @@
         <v>218.2531418417893</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="U22" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="V22" t="n">
-        <v>223.3579622996114</v>
+        <v>87.52958428865753</v>
       </c>
       <c r="W22" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="X22" t="n">
-        <v>27.48948223072401</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="C23" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="D23" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="E23" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="F23" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="G23" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="H23" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="I23" t="n">
         <v>184.9832789520165</v>
       </c>
       <c r="J23" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29092,19 +29092,19 @@
         <v>220.6668199632899</v>
       </c>
       <c r="U23" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="V23" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="W23" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="X23" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
     </row>
     <row r="24">
@@ -29114,22 +29114,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>135.7422970285782</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29162,25 +29162,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.25372131360933</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.7437748603572</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>36.17538421429916</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>223.3579622996114</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>66.59645774656977</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29247,19 +29247,19 @@
         <v>218.2531418417893</v>
       </c>
       <c r="T25" t="n">
-        <v>223.3579622996114</v>
+        <v>27.48948223072364</v>
       </c>
       <c r="U25" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="V25" t="n">
-        <v>27.48948223072401</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="W25" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="X25" t="n">
-        <v>223.3579622996114</v>
+        <v>223.3579622996115</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="C26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="D26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="E26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="F26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="G26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="H26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="I26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="J26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="K26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="L26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="M26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="N26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="O26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="P26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="R26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="S26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="T26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="U26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="V26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="W26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="X26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="Y26" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
     </row>
     <row r="27">
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>133.0803607370166</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7422970285782</v>
       </c>
       <c r="H27" t="n">
         <v>107.7494856336505</v>
@@ -29402,7 +29402,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>142.1672052292639</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -29414,13 +29414,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>126.6554525363311</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>142.1672052292639</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>142.167205229264</v>
       </c>
     </row>
     <row r="28">
@@ -29430,31 +29430,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="C28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="D28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="E28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="F28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="G28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="H28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="I28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="J28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29466,40 +29466,40 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>83.38380691909173</v>
+        <v>142.167205229264</v>
       </c>
       <c r="O28" t="n">
-        <v>142.1672052292639</v>
+        <v>83.383806919088</v>
       </c>
       <c r="P28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="Q28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="R28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="S28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="T28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="U28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="V28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="W28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="X28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="C29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="D29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="E29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="F29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="G29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="H29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="I29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="J29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="K29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="L29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="M29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="N29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="O29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="P29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="Q29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="R29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="S29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="T29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="U29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="V29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="W29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="X29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="Y29" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
     </row>
     <row r="30">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>132.6583915062335</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29597,10 +29597,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>142.167205229264</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>133.0803607370166</v>
       </c>
       <c r="G30" t="n">
         <v>135.7422970285782</v>
@@ -29609,7 +29609,7 @@
         <v>107.7494856336505</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.83175208282594</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,10 +29636,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.25372131360933</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>142.1672052292639</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -29667,37 +29667,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="C31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="D31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="E31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="F31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="G31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="H31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="I31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="J31" t="n">
         <v>72.18841726195335</v>
       </c>
       <c r="K31" t="n">
-        <v>93.32249282846644</v>
+        <v>93.32249282846604</v>
       </c>
       <c r="L31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29706,37 +29706,37 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="P31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="Q31" t="n">
         <v>60.04010205793387</v>
       </c>
       <c r="R31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="S31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="T31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="U31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="V31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="W31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="X31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.1672052292639</v>
+        <v>142.167205229264</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="C32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="D32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="E32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="F32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="G32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="H32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="I32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="J32" t="n">
-        <v>144.0542735889494</v>
+        <v>98.18990598438401</v>
       </c>
       <c r="K32" t="n">
-        <v>98.18990598438612</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="L32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="M32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="N32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="O32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="P32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="R32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="S32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="T32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="U32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="V32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="W32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="X32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="Y32" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
     </row>
     <row r="33">
@@ -29828,22 +29828,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>144.0542735889494</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>45.62759450335076</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7422970285782</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>17.63478310842321</v>
+        <v>107.7494856336505</v>
       </c>
       <c r="I33" t="n">
         <v>76.83175208282594</v>
@@ -29876,7 +29876,7 @@
         <v>77.25372131360933</v>
       </c>
       <c r="S33" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="C34" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="D34" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="E34" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="F34" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="G34" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="H34" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="I34" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="J34" t="n">
-        <v>144.0542735889494</v>
+        <v>72.18841726195335</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>144.0542735889494</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="P34" t="n">
-        <v>129.043569152811</v>
+        <v>116.8952539487897</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.04010205793387</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="R34" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="S34" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="T34" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="U34" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="V34" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="W34" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="X34" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
       <c r="Y34" t="n">
-        <v>144.0542735889494</v>
+        <v>144.0542735889495</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="C35" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="D35" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="E35" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="F35" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="G35" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="H35" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="I35" t="n">
-        <v>217.9326800701442</v>
+        <v>184.9832789520165</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>108.8707168023897</v>
+        <v>141.8201179204985</v>
       </c>
       <c r="S35" t="n">
         <v>193.9009429971065</v>
       </c>
       <c r="T35" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="U35" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="V35" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="W35" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="X35" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="Y35" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
     </row>
     <row r="36">
@@ -30062,19 +30062,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>83.29034027771934</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>135.7422970285782</v>
@@ -30083,7 +30083,7 @@
         <v>107.7494856336505</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>76.83175208282594</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,13 +30110,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>77.25372131360933</v>
       </c>
       <c r="S36" t="n">
         <v>163.7437748603572</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>82.04979086802149</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30195,22 +30195,22 @@
         <v>218.2531418417893</v>
       </c>
       <c r="T37" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="U37" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="V37" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="W37" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="X37" t="n">
-        <v>220.6668199632885</v>
+        <v>38.25405157601008</v>
       </c>
       <c r="Y37" t="n">
-        <v>36.33590548049537</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="C38" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="D38" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="E38" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="F38" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="G38" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="H38" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="I38" t="n">
         <v>184.9832789520165</v>
@@ -30250,7 +30250,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>6.183524151944255</v>
+        <v>6.183524151925326</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>108.8707168023897</v>
       </c>
       <c r="S38" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="T38" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="U38" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="V38" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="W38" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="X38" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="Y38" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
     </row>
     <row r="39">
@@ -30302,7 +30302,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30311,10 +30311,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.7422970285782</v>
       </c>
       <c r="H39" t="n">
         <v>107.7494856336505</v>
@@ -30347,19 +30347,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.25372131360933</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>163.7437748603572</v>
       </c>
       <c r="T39" t="n">
-        <v>197.2502546750647</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>122.1894777693664</v>
       </c>
       <c r="V39" t="n">
-        <v>176.5752669286918</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30387,10 +30387,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>110.7208771957308</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
         <v>167.6540807594457</v>
@@ -30432,19 +30432,19 @@
         <v>218.2531418417893</v>
       </c>
       <c r="T40" t="n">
-        <v>220.6668199632885</v>
+        <v>38.25405157601006</v>
       </c>
       <c r="U40" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="V40" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="W40" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="X40" t="n">
-        <v>220.6668199632885</v>
+        <v>220.6668199632899</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -30478,7 +30478,7 @@
         <v>193.9009429971065</v>
       </c>
       <c r="I41" t="n">
-        <v>193.9009429971065</v>
+        <v>184.9832789520165</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30487,13 +30487,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>191.477379603372</v>
       </c>
       <c r="M41" t="n">
-        <v>89.71891415192977</v>
+        <v>186.0903677854656</v>
       </c>
       <c r="N41" t="n">
-        <v>193.9009429971065</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>193.9009429971065</v>
+        <v>108.8707168023897</v>
       </c>
       <c r="S41" t="n">
         <v>193.9009429971065</v>
@@ -30536,19 +30536,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>13.18972135412142</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.25372131360933</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>163.7437748603572</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30596,7 +30596,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>193.9009429971065</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>136.6036113402095</v>
       </c>
     </row>
     <row r="43">
@@ -30639,7 +30639,7 @@
         <v>146.676173810577</v>
       </c>
       <c r="J43" t="n">
-        <v>72.81748180534898</v>
+        <v>72.18841726195335</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.04010205793386</v>
+        <v>60.04010205793387</v>
       </c>
       <c r="R43" t="n">
-        <v>162.8018439234568</v>
+        <v>163.4309084668523</v>
       </c>
       <c r="S43" t="n">
         <v>193.9009429971065</v>
@@ -30694,37 +30694,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="C44" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="D44" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="E44" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="F44" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="G44" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="H44" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="I44" t="n">
         <v>184.9832789520165</v>
       </c>
       <c r="J44" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>183.6668043917365</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30733,7 +30733,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>98.63657819701416</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.8707168023897</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="S44" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="T44" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="U44" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="V44" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="W44" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="X44" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="Y44" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
     </row>
     <row r="45">
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7422970285782</v>
       </c>
       <c r="H45" t="n">
         <v>107.7494856336505</v>
@@ -30821,10 +30821,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.25372131360933</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>163.7437748603572</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30833,16 +30833,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>41.71853874088313</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>118.4449204995151</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>193.9009429971065</v>
       </c>
     </row>
     <row r="46">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.7127560340796</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
@@ -30891,37 +30891,37 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.6290645433954865</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.04010205793386</v>
+        <v>60.04010205793387</v>
       </c>
       <c r="R46" t="n">
         <v>162.8018439234568</v>
       </c>
       <c r="S46" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="T46" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="U46" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="V46" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="W46" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="X46" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.9009429971064</v>
+        <v>193.9009429971065</v>
       </c>
     </row>
   </sheetData>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5250250675340754</v>
+        <v>0.5250250675340744</v>
       </c>
       <c r="H14" t="n">
-        <v>5.376912972883351</v>
+        <v>5.376912972883342</v>
       </c>
       <c r="I14" t="n">
-        <v>20.24102891610746</v>
+        <v>20.24102891610742</v>
       </c>
       <c r="J14" t="n">
-        <v>44.56084632562027</v>
+        <v>44.56084632562019</v>
       </c>
       <c r="K14" t="n">
-        <v>66.78515743433769</v>
+        <v>66.78515743433758</v>
       </c>
       <c r="L14" t="n">
-        <v>82.85289334488367</v>
+        <v>82.85289334488353</v>
       </c>
       <c r="M14" t="n">
-        <v>92.18980788964278</v>
+        <v>92.18980788964262</v>
       </c>
       <c r="N14" t="n">
-        <v>93.68153536277399</v>
+        <v>93.68153536277381</v>
       </c>
       <c r="O14" t="n">
-        <v>88.46081734748201</v>
+        <v>88.46081734748185</v>
       </c>
       <c r="P14" t="n">
-        <v>75.49926099273452</v>
+        <v>75.49926099273438</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.69680076167042</v>
+        <v>56.69680076167032</v>
       </c>
       <c r="R14" t="n">
-        <v>32.98010589848739</v>
+        <v>32.98010589848733</v>
       </c>
       <c r="S14" t="n">
-        <v>11.96400872643275</v>
+        <v>11.96400872643273</v>
       </c>
       <c r="T14" t="n">
-        <v>2.298297233130416</v>
+        <v>2.298297233130412</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04200200540272602</v>
+        <v>0.04200200540272594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2809131764641048</v>
+        <v>0.2809131764641043</v>
       </c>
       <c r="H15" t="n">
-        <v>2.713029888482276</v>
+        <v>2.713029888482271</v>
       </c>
       <c r="I15" t="n">
-        <v>9.671791382645715</v>
+        <v>9.671791382645697</v>
       </c>
       <c r="J15" t="n">
-        <v>26.54013479918106</v>
+        <v>26.54013479918101</v>
       </c>
       <c r="K15" t="n">
-        <v>45.36131762227608</v>
+        <v>45.361317622276</v>
       </c>
       <c r="L15" t="n">
-        <v>60.99388947743644</v>
+        <v>60.99388947743634</v>
       </c>
       <c r="M15" t="n">
-        <v>71.17699212426022</v>
+        <v>71.1769921242601</v>
       </c>
       <c r="N15" t="n">
-        <v>73.06083531203926</v>
+        <v>73.06083531203913</v>
       </c>
       <c r="O15" t="n">
-        <v>66.83639071775566</v>
+        <v>66.83639071775555</v>
       </c>
       <c r="P15" t="n">
-        <v>53.64209595129033</v>
+        <v>53.64209595129024</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.8583205605759</v>
+        <v>35.85832056057584</v>
       </c>
       <c r="R15" t="n">
-        <v>17.44125844748188</v>
+        <v>17.44125844748185</v>
       </c>
       <c r="S15" t="n">
-        <v>5.217839045287207</v>
+        <v>5.217839045287197</v>
       </c>
       <c r="T15" t="n">
-        <v>1.132277233204001</v>
+        <v>1.132277233203999</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01848113003053322</v>
+        <v>0.01848113003053319</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2355081706623139</v>
+        <v>0.2355081706623135</v>
       </c>
       <c r="H16" t="n">
-        <v>2.093881735524938</v>
+        <v>2.093881735524934</v>
       </c>
       <c r="I16" t="n">
-        <v>7.082372986826678</v>
+        <v>7.082372986826665</v>
       </c>
       <c r="J16" t="n">
-        <v>16.65042766582559</v>
+        <v>16.65042766582556</v>
       </c>
       <c r="K16" t="n">
-        <v>27.36176746422155</v>
+        <v>27.3617674642215</v>
       </c>
       <c r="L16" t="n">
-        <v>35.01364202737711</v>
+        <v>35.01364202737705</v>
       </c>
       <c r="M16" t="n">
-        <v>36.91697624300252</v>
+        <v>36.91697624300246</v>
       </c>
       <c r="N16" t="n">
-        <v>36.03917306144302</v>
+        <v>36.03917306144296</v>
       </c>
       <c r="O16" t="n">
-        <v>33.28800943143325</v>
+        <v>33.2880094314332</v>
       </c>
       <c r="P16" t="n">
-        <v>28.48364274992202</v>
+        <v>28.48364274992197</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.7205978179143</v>
+        <v>19.72059781791427</v>
       </c>
       <c r="R16" t="n">
-        <v>10.58930374632549</v>
+        <v>10.58930374632547</v>
       </c>
       <c r="S16" t="n">
-        <v>4.104265119633232</v>
+        <v>4.104265119633225</v>
       </c>
       <c r="T16" t="n">
-        <v>1.006262183738977</v>
+        <v>1.006262183738976</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01284590021794441</v>
+        <v>0.01284590021794439</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5250250675340755</v>
+        <v>0.5250250675340754</v>
       </c>
       <c r="H41" t="n">
-        <v>5.376912972883352</v>
+        <v>5.376912972883351</v>
       </c>
       <c r="I41" t="n">
         <v>20.24102891610746</v>
       </c>
       <c r="J41" t="n">
-        <v>44.56084632562028</v>
+        <v>44.56084632562027</v>
       </c>
       <c r="K41" t="n">
-        <v>66.78515743433771</v>
+        <v>66.78515743433769</v>
       </c>
       <c r="L41" t="n">
-        <v>82.85289334488368</v>
+        <v>82.85289334488367</v>
       </c>
       <c r="M41" t="n">
-        <v>92.18980788964279</v>
+        <v>92.18980788964278</v>
       </c>
       <c r="N41" t="n">
-        <v>93.681535362774</v>
+        <v>93.68153536277399</v>
       </c>
       <c r="O41" t="n">
-        <v>88.46081734748203</v>
+        <v>88.46081734748201</v>
       </c>
       <c r="P41" t="n">
-        <v>75.49926099273453</v>
+        <v>75.49926099273452</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.69680076167043</v>
+        <v>56.69680076167042</v>
       </c>
       <c r="R41" t="n">
-        <v>32.9801058984874</v>
+        <v>32.98010589848739</v>
       </c>
       <c r="S41" t="n">
-        <v>11.96400872643276</v>
+        <v>11.96400872643275</v>
       </c>
       <c r="T41" t="n">
-        <v>2.298297233130417</v>
+        <v>2.298297233130416</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04200200540272603</v>
+        <v>0.04200200540272602</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,40 +34199,40 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2809131764641049</v>
+        <v>0.2809131764641048</v>
       </c>
       <c r="H42" t="n">
         <v>2.713029888482276</v>
       </c>
       <c r="I42" t="n">
-        <v>9.671791382645717</v>
+        <v>9.671791382645715</v>
       </c>
       <c r="J42" t="n">
-        <v>26.54013479918107</v>
+        <v>26.54013479918106</v>
       </c>
       <c r="K42" t="n">
-        <v>45.36131762227609</v>
+        <v>45.36131762227608</v>
       </c>
       <c r="L42" t="n">
-        <v>60.99388947743645</v>
+        <v>60.99388947743644</v>
       </c>
       <c r="M42" t="n">
-        <v>71.17699212426024</v>
+        <v>71.17699212426022</v>
       </c>
       <c r="N42" t="n">
-        <v>73.06083531203927</v>
+        <v>73.06083531203926</v>
       </c>
       <c r="O42" t="n">
-        <v>66.83639071775568</v>
+        <v>66.83639071775566</v>
       </c>
       <c r="P42" t="n">
-        <v>53.64209595129034</v>
+        <v>53.64209595129033</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.85832056057591</v>
+        <v>35.8583205605759</v>
       </c>
       <c r="R42" t="n">
-        <v>17.44125844748189</v>
+        <v>17.44125844748188</v>
       </c>
       <c r="S42" t="n">
         <v>5.217839045287207</v>
@@ -34284,37 +34284,37 @@
         <v>2.093881735524938</v>
       </c>
       <c r="I43" t="n">
-        <v>7.082372986826679</v>
+        <v>7.082372986826678</v>
       </c>
       <c r="J43" t="n">
         <v>16.65042766582559</v>
       </c>
       <c r="K43" t="n">
-        <v>27.36176746422156</v>
+        <v>27.36176746422155</v>
       </c>
       <c r="L43" t="n">
-        <v>35.01364202737712</v>
+        <v>35.01364202737711</v>
       </c>
       <c r="M43" t="n">
-        <v>36.91697624300253</v>
+        <v>36.91697624300252</v>
       </c>
       <c r="N43" t="n">
-        <v>36.03917306144303</v>
+        <v>36.03917306144302</v>
       </c>
       <c r="O43" t="n">
-        <v>33.28800943143326</v>
+        <v>33.28800943143325</v>
       </c>
       <c r="P43" t="n">
-        <v>28.48364274992203</v>
+        <v>28.48364274992202</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.72059781791431</v>
+        <v>19.7205978179143</v>
       </c>
       <c r="R43" t="n">
         <v>10.58930374632549</v>
       </c>
       <c r="S43" t="n">
-        <v>4.104265119633233</v>
+        <v>4.104265119633232</v>
       </c>
       <c r="T43" t="n">
         <v>1.006262183738977</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5250250675340755</v>
+        <v>0.5250250675340754</v>
       </c>
       <c r="H44" t="n">
-        <v>5.376912972883352</v>
+        <v>5.376912972883351</v>
       </c>
       <c r="I44" t="n">
         <v>20.24102891610746</v>
       </c>
       <c r="J44" t="n">
-        <v>44.56084632562028</v>
+        <v>44.56084632562027</v>
       </c>
       <c r="K44" t="n">
-        <v>66.78515743433771</v>
+        <v>66.78515743433769</v>
       </c>
       <c r="L44" t="n">
-        <v>82.85289334488368</v>
+        <v>82.85289334488367</v>
       </c>
       <c r="M44" t="n">
-        <v>92.18980788964279</v>
+        <v>92.18980788964278</v>
       </c>
       <c r="N44" t="n">
-        <v>93.681535362774</v>
+        <v>93.68153536277399</v>
       </c>
       <c r="O44" t="n">
-        <v>88.46081734748203</v>
+        <v>88.46081734748201</v>
       </c>
       <c r="P44" t="n">
-        <v>75.49926099273453</v>
+        <v>75.49926099273452</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.69680076167043</v>
+        <v>56.69680076167042</v>
       </c>
       <c r="R44" t="n">
-        <v>32.9801058984874</v>
+        <v>32.98010589848739</v>
       </c>
       <c r="S44" t="n">
-        <v>11.96400872643276</v>
+        <v>11.96400872643275</v>
       </c>
       <c r="T44" t="n">
-        <v>2.298297233130417</v>
+        <v>2.298297233130416</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04200200540272603</v>
+        <v>0.04200200540272602</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,40 +34436,40 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2809131764641049</v>
+        <v>0.2809131764641048</v>
       </c>
       <c r="H45" t="n">
         <v>2.713029888482276</v>
       </c>
       <c r="I45" t="n">
-        <v>9.671791382645717</v>
+        <v>9.671791382645715</v>
       </c>
       <c r="J45" t="n">
-        <v>26.54013479918107</v>
+        <v>26.54013479918106</v>
       </c>
       <c r="K45" t="n">
-        <v>45.36131762227609</v>
+        <v>45.36131762227608</v>
       </c>
       <c r="L45" t="n">
-        <v>60.99388947743645</v>
+        <v>60.99388947743644</v>
       </c>
       <c r="M45" t="n">
-        <v>71.17699212426024</v>
+        <v>71.17699212426022</v>
       </c>
       <c r="N45" t="n">
-        <v>73.06083531203927</v>
+        <v>73.06083531203926</v>
       </c>
       <c r="O45" t="n">
-        <v>66.83639071775568</v>
+        <v>66.83639071775566</v>
       </c>
       <c r="P45" t="n">
-        <v>53.64209595129034</v>
+        <v>53.64209595129033</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.85832056057591</v>
+        <v>35.8583205605759</v>
       </c>
       <c r="R45" t="n">
-        <v>17.44125844748189</v>
+        <v>17.44125844748188</v>
       </c>
       <c r="S45" t="n">
         <v>5.217839045287207</v>
@@ -34521,37 +34521,37 @@
         <v>2.093881735524938</v>
       </c>
       <c r="I46" t="n">
-        <v>7.082372986826679</v>
+        <v>7.082372986826678</v>
       </c>
       <c r="J46" t="n">
         <v>16.65042766582559</v>
       </c>
       <c r="K46" t="n">
-        <v>27.36176746422156</v>
+        <v>27.36176746422155</v>
       </c>
       <c r="L46" t="n">
-        <v>35.01364202737712</v>
+        <v>35.01364202737711</v>
       </c>
       <c r="M46" t="n">
-        <v>36.91697624300253</v>
+        <v>36.91697624300252</v>
       </c>
       <c r="N46" t="n">
-        <v>36.03917306144303</v>
+        <v>36.03917306144302</v>
       </c>
       <c r="O46" t="n">
-        <v>33.28800943143326</v>
+        <v>33.28800943143325</v>
       </c>
       <c r="P46" t="n">
-        <v>28.48364274992203</v>
+        <v>28.48364274992202</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.72059781791431</v>
+        <v>19.7205978179143</v>
       </c>
       <c r="R46" t="n">
         <v>10.58930374632549</v>
       </c>
       <c r="S46" t="n">
-        <v>4.104265119633233</v>
+        <v>4.104265119633232</v>
       </c>
       <c r="T46" t="n">
         <v>1.006262183738977</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="M8" t="n">
-        <v>2.939619267058895</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>7.293863480540836</v>
       </c>
       <c r="P8" t="n">
-        <v>7.293863480540836</v>
+        <v>6.999161925771512</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,11 +35255,11 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>6.999161925771512</v>
+      </c>
+      <c r="M9" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="M9" t="n">
-        <v>6.999161925771512</v>
-      </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,10 +35337,10 @@
         <v>7.293863480540836</v>
       </c>
       <c r="M10" t="n">
+        <v>6.999161925771512</v>
+      </c>
+      <c r="N10" t="n">
         <v>7.293863480540836</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6.999161925771512</v>
       </c>
       <c r="O10" t="n">
         <v>7.293863480540836</v>
@@ -35492,19 +35492,19 @@
         <v>186.0097611153579</v>
       </c>
       <c r="L12" t="n">
-        <v>311.5773283076566</v>
+        <v>251.2670842234909</v>
       </c>
       <c r="M12" t="n">
         <v>416.9295753502923</v>
       </c>
       <c r="N12" t="n">
-        <v>282.3177728262668</v>
+        <v>425.8315532348007</v>
       </c>
       <c r="O12" t="n">
-        <v>337.421864432221</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>254.218328107853</v>
       </c>
       <c r="Q12" t="n">
         <v>117.856470071988</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.02862512800122</v>
+        <v>50.02862512800124</v>
       </c>
       <c r="K13" t="n">
         <v>134.8044001363428</v>
@@ -35586,7 +35586,7 @@
         <v>156.8227070385605</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.1769403320207</v>
+        <v>62.17694033202071</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.90156919105785</v>
+        <v>43.90156919105777</v>
       </c>
       <c r="K14" t="n">
-        <v>189.308781739493</v>
+        <v>189.308781739494</v>
       </c>
       <c r="L14" t="n">
-        <v>287.3483018816145</v>
+        <v>287.3483018816144</v>
       </c>
       <c r="M14" t="n">
-        <v>335.0963053255977</v>
+        <v>335.0963053255975</v>
       </c>
       <c r="N14" t="n">
-        <v>324.8445997445613</v>
+        <v>324.8445997445612</v>
       </c>
       <c r="O14" t="n">
-        <v>260.1472497245926</v>
+        <v>260.1472497245925</v>
       </c>
       <c r="P14" t="n">
-        <v>184.7177466296887</v>
+        <v>184.7177466296885</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.75634342038304</v>
+        <v>60.75634342038294</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>34.00812555320621</v>
+        <v>34.00812555320617</v>
       </c>
       <c r="K15" t="n">
-        <v>186.0097611153579</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>311.5773283076566</v>
       </c>
       <c r="M15" t="n">
-        <v>19.19746683390552</v>
+        <v>416.9295753502922</v>
       </c>
       <c r="N15" t="n">
         <v>425.8315532348007</v>
       </c>
       <c r="O15" t="n">
-        <v>337.421864432221</v>
+        <v>243.5559871031802</v>
       </c>
       <c r="P15" t="n">
-        <v>254.218328107853</v>
+        <v>254.2183281078529</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.856470071988</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.0286251280012</v>
+        <v>50.02862512800124</v>
       </c>
       <c r="K16" t="n">
-        <v>134.8044001363427</v>
+        <v>134.8044001363428</v>
       </c>
       <c r="L16" t="n">
-        <v>194.6918146463409</v>
+        <v>194.691814646341</v>
       </c>
       <c r="M16" t="n">
         <v>209.3314266298656</v>
       </c>
       <c r="N16" t="n">
-        <v>212.4532351160354</v>
+        <v>212.4532351160355</v>
       </c>
       <c r="O16" t="n">
         <v>190.0732598513588</v>
@@ -35823,7 +35823,7 @@
         <v>156.8227070385604</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.17694033202067</v>
+        <v>62.17694033202071</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>184.7177466296887</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.75634342038291</v>
+        <v>60.75634342038304</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>34.00812555320621</v>
       </c>
       <c r="K18" t="n">
-        <v>186.0097611153579</v>
+        <v>42.49598070682405</v>
       </c>
       <c r="L18" t="n">
         <v>311.5773283076566</v>
@@ -35972,13 +35972,13 @@
         <v>416.9295753502923</v>
       </c>
       <c r="N18" t="n">
-        <v>28.09944471841386</v>
+        <v>425.8315532348007</v>
       </c>
       <c r="O18" t="n">
         <v>337.421864432221</v>
       </c>
       <c r="P18" t="n">
-        <v>254.218328107853</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>117.856470071988</v>
@@ -36127,13 +36127,13 @@
         <v>287.3483018816145</v>
       </c>
       <c r="M20" t="n">
-        <v>335.0963053255977</v>
+        <v>335.0963053255975</v>
       </c>
       <c r="N20" t="n">
         <v>324.8445997445613</v>
       </c>
       <c r="O20" t="n">
-        <v>260.1472497245924</v>
+        <v>260.1472497245926</v>
       </c>
       <c r="P20" t="n">
         <v>184.7177466296887</v>
@@ -36206,7 +36206,7 @@
         <v>311.5773283076566</v>
       </c>
       <c r="M21" t="n">
-        <v>356.6193312661265</v>
+        <v>416.9295753502923</v>
       </c>
       <c r="N21" t="n">
         <v>425.8315532348007</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>254.218328107853</v>
+        <v>193.9080840236871</v>
       </c>
       <c r="Q21" t="n">
         <v>117.856470071988</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>43.90156919105763</v>
+        <v>43.90156919105785</v>
       </c>
       <c r="K23" t="n">
         <v>189.308781739493</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>34.00812555320621</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>186.0097611153579</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>311.5773283076566</v>
       </c>
       <c r="M24" t="n">
-        <v>19.19746683390552</v>
+        <v>416.9295753502923</v>
       </c>
       <c r="N24" t="n">
-        <v>425.8315532348007</v>
+        <v>365.9738014589659</v>
       </c>
       <c r="O24" t="n">
         <v>337.421864432221</v>
@@ -36455,7 +36455,7 @@
         <v>254.218328107853</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.856470071988</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.0687744203217</v>
+        <v>186.0687744203219</v>
       </c>
       <c r="K26" t="n">
-        <v>331.4759869687569</v>
+        <v>331.475986968757</v>
       </c>
       <c r="L26" t="n">
-        <v>429.5155071108784</v>
+        <v>429.5155071108786</v>
       </c>
       <c r="M26" t="n">
-        <v>477.2635105548616</v>
+        <v>477.2635105548617</v>
       </c>
       <c r="N26" t="n">
-        <v>467.0118049738252</v>
+        <v>467.0118049738253</v>
       </c>
       <c r="O26" t="n">
-        <v>402.3144549538565</v>
+        <v>402.3144549538566</v>
       </c>
       <c r="P26" t="n">
-        <v>326.8849518589525</v>
+        <v>326.8849518589527</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.9235486496469</v>
+        <v>202.9235486496471</v>
       </c>
       <c r="R26" t="n">
-        <v>33.29648842687418</v>
+        <v>33.29648842687435</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.97878796731051</v>
+        <v>69.97878796731068</v>
       </c>
       <c r="K28" t="n">
         <v>12.5873577463882</v>
@@ -36762,16 +36762,16 @@
         <v>87.11438423991109</v>
       </c>
       <c r="N28" t="n">
-        <v>173.6199996451726</v>
+        <v>232.4033979553449</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0234226906682</v>
+        <v>151.2400243804923</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7728698778697</v>
+        <v>176.7728698778699</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.12710317132999</v>
+        <v>82.12710317133016</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>467.0118049738253</v>
       </c>
       <c r="O29" t="n">
-        <v>402.3144549538565</v>
+        <v>402.3144549538566</v>
       </c>
       <c r="P29" t="n">
         <v>326.8849518589526</v>
@@ -36853,7 +36853,7 @@
         <v>202.923548649647</v>
       </c>
       <c r="R29" t="n">
-        <v>33.29648842687426</v>
+        <v>33.29648842687429</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>105.9098505748546</v>
+        <v>105.9098505748542</v>
       </c>
       <c r="L31" t="n">
-        <v>214.6419774856503</v>
+        <v>214.6419774856504</v>
       </c>
       <c r="M31" t="n">
         <v>87.11438423991109</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>187.9558427800073</v>
+        <v>142.0914751754419</v>
       </c>
       <c r="K32" t="n">
-        <v>287.4986877238791</v>
+        <v>333.3630553284425</v>
       </c>
       <c r="L32" t="n">
-        <v>431.4025754705639</v>
+        <v>431.402575470564</v>
       </c>
       <c r="M32" t="n">
-        <v>479.1505789145471</v>
+        <v>479.1505789145472</v>
       </c>
       <c r="N32" t="n">
-        <v>468.8988733335107</v>
+        <v>468.8988733335108</v>
       </c>
       <c r="O32" t="n">
-        <v>404.201523313542</v>
+        <v>404.2015233135421</v>
       </c>
       <c r="P32" t="n">
         <v>328.7720202186381</v>
       </c>
       <c r="Q32" t="n">
-        <v>204.8106170093324</v>
+        <v>204.8106170093325</v>
       </c>
       <c r="R32" t="n">
-        <v>35.18355678655972</v>
+        <v>35.18355678655981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>71.86585632699605</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>12.5873577463882</v>
       </c>
       <c r="L34" t="n">
-        <v>216.5290458453358</v>
+        <v>72.47477225638639</v>
       </c>
       <c r="M34" t="n">
-        <v>87.11438423991109</v>
+        <v>231.1686578288606</v>
       </c>
       <c r="N34" t="n">
         <v>90.23619272608092</v>
       </c>
       <c r="O34" t="n">
-        <v>211.9104910503537</v>
+        <v>211.9104910503538</v>
       </c>
       <c r="P34" t="n">
-        <v>163.6492338014168</v>
+        <v>151.5009185973956</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>84.01417153101562</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>32.94940111812762</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>43.90156919105785</v>
@@ -37327,13 +37327,13 @@
         <v>60.75634342038304</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>32.9494011181088</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.089663228378011e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>34.00812555320621</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>186.0097611153579</v>
       </c>
       <c r="L36" t="n">
-        <v>311.5773283076566</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>416.9295753502923</v>
       </c>
       <c r="N36" t="n">
-        <v>247.0586069518983</v>
+        <v>434.152958109017</v>
       </c>
       <c r="O36" t="n">
-        <v>337.421864432221</v>
+        <v>275.8950804673835</v>
       </c>
       <c r="P36" t="n">
         <v>254.218328107853</v>
@@ -37546,7 +37546,7 @@
         <v>189.308781739493</v>
       </c>
       <c r="L38" t="n">
-        <v>293.5318260335588</v>
+        <v>293.5318260335399</v>
       </c>
       <c r="M38" t="n">
         <v>335.0963053255977</v>
@@ -37567,10 +37567,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>26.76587696618205</v>
+        <v>26.76587696618344</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.079005087341609e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37631,10 +37631,10 @@
         <v>416.9295753502923</v>
       </c>
       <c r="N39" t="n">
-        <v>398.9232025770924</v>
+        <v>434.152958109017</v>
       </c>
       <c r="O39" t="n">
-        <v>337.421864432221</v>
+        <v>302.1921089002788</v>
       </c>
       <c r="P39" t="n">
         <v>254.218328107853</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.917664045089904</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>43.90156919105787</v>
+        <v>43.90156919105785</v>
       </c>
       <c r="K41" t="n">
         <v>189.308781739493</v>
       </c>
       <c r="L41" t="n">
-        <v>287.3483018816145</v>
+        <v>478.8256814849865</v>
       </c>
       <c r="M41" t="n">
-        <v>424.8152194775275</v>
+        <v>521.1866731110633</v>
       </c>
       <c r="N41" t="n">
-        <v>518.7455427416678</v>
+        <v>324.8445997445613</v>
       </c>
       <c r="O41" t="n">
-        <v>260.1472497245927</v>
+        <v>260.1472497245926</v>
       </c>
       <c r="P41" t="n">
         <v>184.7177466296887</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.75634342038305</v>
+        <v>60.75634342038304</v>
       </c>
       <c r="R41" t="n">
-        <v>85.03022619471679</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.00812555320622</v>
+        <v>34.00812555320621</v>
       </c>
       <c r="K42" t="n">
-        <v>186.0097611153579</v>
+        <v>148.1582178745248</v>
       </c>
       <c r="L42" t="n">
-        <v>311.5773283076567</v>
+        <v>311.5773283076566</v>
       </c>
       <c r="M42" t="n">
         <v>416.9295753502923</v>
@@ -37874,7 +37874,7 @@
         <v>337.421864432221</v>
       </c>
       <c r="P42" t="n">
-        <v>216.366784867025</v>
+        <v>254.218328107853</v>
       </c>
       <c r="Q42" t="n">
         <v>117.856470071988</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.629064543395628</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.58735774638821</v>
+        <v>12.5873577463882</v>
       </c>
       <c r="L43" t="n">
-        <v>72.4747722563864</v>
+        <v>72.47477225638639</v>
       </c>
       <c r="M43" t="n">
         <v>87.11438423991109</v>
       </c>
       <c r="N43" t="n">
-        <v>90.23619272608093</v>
+        <v>90.23619272608092</v>
       </c>
       <c r="O43" t="n">
-        <v>67.85621746140433</v>
+        <v>67.85621746140431</v>
       </c>
       <c r="P43" t="n">
         <v>34.60566464860587</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.6290645433954629</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>189.308781739493</v>
       </c>
       <c r="L44" t="n">
-        <v>471.0151062733511</v>
+        <v>287.3483018816145</v>
       </c>
       <c r="M44" t="n">
         <v>335.0963053255977</v>
@@ -38029,16 +38029,16 @@
         <v>324.8445997445613</v>
       </c>
       <c r="O44" t="n">
-        <v>260.1472497245927</v>
+        <v>358.7838279216068</v>
       </c>
       <c r="P44" t="n">
         <v>184.7177466296887</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.75634342038305</v>
+        <v>60.75634342038304</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>85.0302261947168</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.00812555320622</v>
+        <v>34.00812555320621</v>
       </c>
       <c r="K45" t="n">
-        <v>148.1582178745301</v>
+        <v>186.0097611153579</v>
       </c>
       <c r="L45" t="n">
-        <v>311.5773283076567</v>
+        <v>273.7257850668235</v>
       </c>
       <c r="M45" t="n">
         <v>416.9295753502923</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.6290645433958002</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.58735774638821</v>
+        <v>12.5873577463882</v>
       </c>
       <c r="L46" t="n">
-        <v>72.4747722563864</v>
+        <v>72.47477225638639</v>
       </c>
       <c r="M46" t="n">
         <v>87.11438423991109</v>
       </c>
       <c r="N46" t="n">
-        <v>90.23619272608093</v>
+        <v>90.23619272608092</v>
       </c>
       <c r="O46" t="n">
-        <v>67.85621746140433</v>
+        <v>68.4852820047998</v>
       </c>
       <c r="P46" t="n">
         <v>34.60566464860587</v>
